--- a/data/input/plano/plano-funding-pad.xlsx
+++ b/data/input/plano/plano-funding-pad.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="123820"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sicoob.sharepoint.com/sites/Intelignciademercado/Shared Documents/General/99_PROJETOS/python/sicoob-es/proj-funding-caixa-central/data/input/plano/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sicoob.sharepoint.com/sites/Intelignciademercado/Shared Documents/General/99_PROJETOS/python/sicoob-es/proj-funding-caixa-central-v2/data/input/plano/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1993" documentId="11_06A40988C0BCFEF439980D1FF686DCE1502CFDEE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04AF124E-C0E2-4122-864E-16F0ECC3761A}"/>
+  <xr:revisionPtr revIDLastSave="2016" documentId="11_06A40988C0BCFEF439980D1FF686DCE1502CFDEE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A74D393F-831C-4C16-9C72-DC39D743767C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="943" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -999,7 +999,7 @@
       <name val="Montserrat"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1009,12 +1009,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1187,7 +1181,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1198,9 +1192,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1231,24 +1222,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1269,19 +1244,19 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1293,17 +1268,29 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1661,25 +1648,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="19" t="s">
         <v>182</v>
       </c>
     </row>
@@ -2297,7 +2284,7 @@
       <c r="F28" s="4">
         <v>190</v>
       </c>
-      <c r="G28" s="20" t="str">
+      <c r="G28" s="18" t="str">
         <f>IFERROR(VLOOKUP(F28,PlanoFunding!A:B,2,0),"")</f>
         <v>PERMANENTE</v>
       </c>
@@ -2727,7 +2714,7 @@
       <c r="F47" s="4">
         <v>270</v>
       </c>
-      <c r="G47" s="20" t="str">
+      <c r="G47" s="18" t="str">
         <f>IFERROR(VLOOKUP(F47,PlanoFunding!A:B,2,0),"")</f>
         <v>RESERVA DE LUCROS AJUSTADA</v>
       </c>
@@ -3318,1381 +3305,1401 @@
   <dimension ref="A1:L70"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J46" sqref="J46"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="13.2" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="10.199999999999999" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="60.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="14" style="2" customWidth="1"/>
-    <col min="9" max="9" width="23" style="6" customWidth="1"/>
-    <col min="10" max="10" width="58.109375" customWidth="1"/>
-    <col min="11" max="12" width="18.88671875" hidden="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.109375" hidden="1"/>
+    <col min="1" max="1" width="12.6640625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="42.109375" style="1" customWidth="1"/>
+    <col min="3" max="8" width="12.5546875" style="6" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" style="11" customWidth="1"/>
+    <col min="10" max="10" width="47.109375" style="1" customWidth="1"/>
+    <col min="11" max="12" width="18.88671875" style="1" hidden="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.109375" style="1" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="25" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:10" s="38" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A1" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="39" t="s">
         <v>163</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="36" t="s">
         <v>281</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="36" t="s">
         <v>204</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="36" t="s">
         <v>167</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="36" t="s">
         <v>172</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="36" t="s">
         <v>200</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="37" t="s">
         <v>184</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="36" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="6">
         <v>101</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="6">
         <v>1</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="6">
         <v>0</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="6">
         <v>3</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="11">
         <v>1</v>
       </c>
-      <c r="J2" t="str">
+      <c r="J2" s="1" t="str">
         <f>IFERROR(VLOOKUP(I2,TabelaPrazosMoedaOrigem!A:D,4,0),"")</f>
         <v>NEUTRO RPL CURTO PRAZO</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="6">
         <v>102</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="6">
         <v>1</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="6">
         <v>0</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="6">
         <v>4</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="11">
         <v>1</v>
       </c>
-      <c r="J3" t="str">
+      <c r="J3" s="1" t="str">
         <f>IFERROR(VLOOKUP(I3,TabelaPrazosMoedaOrigem!A:D,4,0),"")</f>
         <v>NEUTRO RPL CURTO PRAZO</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
         <v>103</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="6">
         <v>1</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="6">
         <v>0</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="6">
         <v>2</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="11">
         <v>5</v>
       </c>
-      <c r="J4" t="str">
+      <c r="J4" s="1" t="str">
         <f>IFERROR(VLOOKUP(I4,TabelaPrazosMoedaOrigem!A:D,4,0),"")</f>
         <v>OUTROS RECURSOS SENSÍVEIS A JUROS - DI</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="6">
         <v>110</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="6">
         <v>1</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="6">
         <v>120</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="6">
         <v>0</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
         <v>111</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="6">
         <v>1</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="6">
         <v>120</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="6">
         <v>0</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="6">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
         <v>112</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="6">
         <v>1</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="6">
         <v>120</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="6">
         <v>0</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+    <row r="8" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="23">
         <v>120</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="23">
         <v>1</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4">
+      <c r="F8" s="23"/>
+      <c r="G8" s="23">
         <v>1</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="23">
         <v>8</v>
       </c>
-      <c r="I8" s="19"/>
-      <c r="J8" s="5" t="str">
+      <c r="I8" s="24"/>
+      <c r="J8" s="25" t="str">
         <f>IFERROR(VLOOKUP(I8,TabelaPrazosMoedaOrigem!A:D,4,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+    <row r="9" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="23">
         <v>121</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="25" t="s">
         <v>241</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="23">
         <v>1</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="23">
         <v>120</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="23">
         <v>0</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="23">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="I9" s="24"/>
+    </row>
+    <row r="10" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="23">
         <v>122</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="25" t="s">
         <v>242</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="23">
         <v>1</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="23">
         <v>120</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="23">
         <v>0</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="23">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="I10" s="24"/>
+    </row>
+    <row r="11" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="23">
         <v>123</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="25" t="s">
         <v>170</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="23">
         <v>1</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="23">
         <v>120</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="23">
         <v>0</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="23">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="I11" s="24"/>
+    </row>
+    <row r="12" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="23">
         <v>124</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="25" t="s">
         <v>243</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="23">
         <v>1</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="23">
         <v>120</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="23">
         <v>0</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="23">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="I12" s="24"/>
+    </row>
+    <row r="13" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="23">
         <v>125</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="25" t="s">
         <v>244</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="23">
         <v>1</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="23">
         <v>120</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="23">
         <v>0</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="23">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+      <c r="I13" s="24"/>
+    </row>
+    <row r="14" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="23">
         <v>126</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="25" t="s">
         <v>245</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="23">
         <v>1</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="23">
         <v>120</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="23">
         <v>0</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="23">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+      <c r="I14" s="24"/>
+    </row>
+    <row r="15" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="23">
         <v>127</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="25" t="s">
         <v>246</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="23">
         <v>1</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="23">
         <v>120</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="23">
         <v>0</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="23">
         <v>21</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+      <c r="I15" s="24"/>
+    </row>
+    <row r="16" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="23">
         <v>128</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="25" t="s">
         <v>247</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="23">
         <v>1</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="23">
         <v>120</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="23">
         <v>0</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="23">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+      <c r="I16" s="24"/>
+    </row>
+    <row r="17" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="23">
         <v>129</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="25" t="s">
         <v>248</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="23">
         <v>1</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="23">
         <v>120</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="23">
         <v>0</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="23">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+      <c r="I17" s="24"/>
+    </row>
+    <row r="18" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="23">
         <v>130</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="25" t="s">
         <v>249</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="23">
         <v>1</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="23">
         <v>120</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="23">
         <v>0</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="23">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+      <c r="I18" s="24"/>
+    </row>
+    <row r="19" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="23">
         <v>131</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="25" t="s">
         <v>250</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="23">
         <v>1</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="23">
         <v>120</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="23">
         <v>0</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19" s="23">
         <v>11</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+      <c r="I19" s="24"/>
+    </row>
+    <row r="20" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="23">
         <v>132</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="25" t="s">
         <v>251</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="23">
         <v>1</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="23">
         <v>120</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="23">
         <v>0</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H20" s="23">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+      <c r="I20" s="24"/>
+    </row>
+    <row r="21" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="23">
         <v>133</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="25" t="s">
         <v>252</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="23">
         <v>1</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="23">
         <v>120</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="23">
         <v>0</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H21" s="23">
         <v>13</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+      <c r="I21" s="24"/>
+    </row>
+    <row r="22" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="23">
         <v>134</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="40" t="s">
         <v>253</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="23">
         <v>1</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="23">
         <v>120</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22" s="23">
         <v>0</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H22" s="23">
         <v>22</v>
       </c>
-      <c r="J22" t="str">
+      <c r="I22" s="24"/>
+      <c r="J22" s="25" t="str">
         <f>IFERROR(VLOOKUP(I22,TabelaPrazosMoedaOrigem!A:D,4,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+    <row r="23" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="23">
         <v>135</v>
       </c>
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="40" t="s">
         <v>254</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="23">
         <v>1</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="23">
         <v>120</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="23">
         <v>0</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H23" s="23">
         <v>23</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+      <c r="I23" s="24"/>
+    </row>
+    <row r="24" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="23">
         <v>136</v>
       </c>
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="40" t="s">
         <v>255</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="23">
         <v>1</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="23">
         <v>120</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G24" s="23">
         <v>0</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H24" s="23">
         <v>24</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
+      <c r="I24" s="24"/>
+    </row>
+    <row r="25" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="23">
         <v>137</v>
       </c>
-      <c r="B25" s="43" t="s">
+      <c r="B25" s="40" t="s">
         <v>256</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="23">
         <v>1</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="23">
         <v>120</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25" s="23">
         <v>0</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25" s="23">
         <v>25</v>
       </c>
-      <c r="I25" s="19"/>
-      <c r="J25" s="5"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+      <c r="I25" s="24"/>
+    </row>
+    <row r="26" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="23">
         <v>185</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="23">
         <v>1</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="G26" s="2">
+      <c r="F26" s="23"/>
+      <c r="G26" s="23">
         <v>0</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H26" s="23">
         <v>1</v>
       </c>
-      <c r="I26" s="6">
+      <c r="I26" s="24">
         <v>3</v>
       </c>
-      <c r="J26" t="str">
+      <c r="J26" s="25" t="str">
         <f>IFERROR(VLOOKUP(I26,TabelaPrazosMoedaOrigem!A:D,4,0),"")</f>
         <v>OUTROS RECURSOS SENSÍVEIS A JUROS - EMP BANCOOB/OUTROS</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+    <row r="27" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="23">
         <v>188</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="25" t="s">
         <v>203</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="23">
         <v>1</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="23">
         <v>120</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G27" s="23">
         <v>0</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H27" s="23">
         <v>26</v>
       </c>
-      <c r="I27" s="6">
+      <c r="I27" s="24">
         <v>6</v>
       </c>
-      <c r="J27" t="str">
+      <c r="J27" s="25" t="str">
         <f>IFERROR(VLOOKUP(I27,TabelaPrazosMoedaOrigem!A:D,4,0),"")</f>
         <v>PRÉ RPL 1 DIA</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
+    <row r="28" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="23">
         <v>189</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="23">
         <v>1</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="23">
         <v>120</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G28" s="23">
         <v>0</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H28" s="23">
         <v>27</v>
       </c>
-      <c r="J28" t="str">
+      <c r="I28" s="24"/>
+      <c r="J28" s="25" t="str">
         <f>IFERROR(VLOOKUP(I28,TabelaPrazosMoedaOrigem!A:D,4,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
+    <row r="29" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="7">
         <v>190</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="7">
         <v>1</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4">
+      <c r="F29" s="7"/>
+      <c r="G29" s="7">
         <v>0</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H29" s="7">
         <v>28</v>
       </c>
-      <c r="I29" s="19">
+      <c r="I29" s="12">
         <v>2</v>
       </c>
-      <c r="J29" s="5" t="str">
+      <c r="J29" s="8" t="str">
         <f>IFERROR(VLOOKUP(I29,TabelaPrazosMoedaOrigem!A:D,4,0),"")</f>
         <v>NEUTRO RPL LONGO PRAZO</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+    <row r="30" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="23">
         <v>201</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="25" t="s">
         <v>287</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="23">
         <v>0</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="G30" s="2">
+      <c r="F30" s="23"/>
+      <c r="G30" s="23">
         <v>1</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H30" s="23">
         <v>4</v>
       </c>
-      <c r="J30" t="str">
+      <c r="I30" s="24"/>
+      <c r="J30" s="25" t="str">
         <f>IFERROR(VLOOKUP(I30,TabelaPrazosMoedaOrigem!A:D,4,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
+    <row r="31" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="23">
         <v>202</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="23">
         <v>0</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E31" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="23">
         <v>201</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G31" s="23">
         <v>0</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H31" s="23">
         <v>5</v>
       </c>
-      <c r="J31" t="str">
+      <c r="I31" s="24"/>
+      <c r="J31" s="25" t="str">
         <f>IFERROR(VLOOKUP(I31,TabelaPrazosMoedaOrigem!A:D,4,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
+    <row r="32" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="23">
         <v>203</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="25" t="s">
         <v>289</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="23">
         <v>0</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E32" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="23">
         <v>201</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G32" s="23">
         <v>0</v>
       </c>
-      <c r="H32" s="2">
+      <c r="H32" s="23">
         <v>13</v>
       </c>
-      <c r="I32" s="6">
+      <c r="I32" s="24">
         <v>1</v>
       </c>
-      <c r="J32" t="str">
+      <c r="J32" s="25" t="str">
         <f>IFERROR(VLOOKUP(I32,TabelaPrazosMoedaOrigem!A:D,4,0),"")</f>
         <v>NEUTRO RPL CURTO PRAZO</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="6">
         <v>210</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="6">
         <v>0</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E33" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="G33" s="2">
+      <c r="G33" s="6">
         <v>1</v>
       </c>
-      <c r="H33" s="2">
+      <c r="H33" s="6">
         <v>7</v>
       </c>
-      <c r="J33" t="str">
+      <c r="J33" s="1" t="str">
         <f>IFERROR(VLOOKUP(I33,TabelaPrazosMoedaOrigem!A:D,4,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="6">
         <v>211</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="6">
         <v>0</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E34" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34" s="6">
         <v>210</v>
       </c>
-      <c r="G34" s="2">
+      <c r="G34" s="6">
         <v>0</v>
       </c>
-      <c r="H34" s="2">
+      <c r="H34" s="6">
         <v>8</v>
       </c>
-      <c r="J34" t="str">
+      <c r="J34" s="1" t="str">
         <f>IFERROR(VLOOKUP(I34,TabelaPrazosMoedaOrigem!A:D,4,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="6">
         <v>212</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="6">
         <v>0</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E35" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35" s="6">
         <v>210</v>
       </c>
-      <c r="G35" s="2">
+      <c r="G35" s="6">
         <v>0</v>
       </c>
-      <c r="H35" s="2">
+      <c r="H35" s="6">
         <v>9</v>
       </c>
-      <c r="J35" t="str">
+      <c r="J35" s="1" t="str">
         <f>IFERROR(VLOOKUP(I35,TabelaPrazosMoedaOrigem!A:D,4,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="6">
         <v>213</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36" s="6">
         <v>0</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E36" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F36" s="6">
         <v>210</v>
       </c>
-      <c r="G36" s="2">
+      <c r="G36" s="6">
         <v>0</v>
       </c>
-      <c r="H36" s="2">
+      <c r="H36" s="6">
         <v>10</v>
       </c>
-      <c r="J36" t="str">
+      <c r="J36" s="1" t="str">
         <f>IFERROR(VLOOKUP(I36,TabelaPrazosMoedaOrigem!A:D,4,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="6">
         <v>214</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="6">
         <v>0</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E37" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F37" s="6">
         <v>210</v>
       </c>
-      <c r="G37" s="2">
+      <c r="G37" s="6">
         <v>0</v>
       </c>
-      <c r="H37" s="2">
+      <c r="H37" s="6">
         <v>11</v>
       </c>
-      <c r="J37" t="str">
+      <c r="J37" s="1" t="str">
         <f>IFERROR(VLOOKUP(I37,TabelaPrazosMoedaOrigem!A:D,4,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="6">
         <v>218</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38" s="6">
         <v>0</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E38" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F38" s="6">
         <v>210</v>
       </c>
-      <c r="G38" s="2">
+      <c r="G38" s="6">
         <v>0</v>
       </c>
-      <c r="H38" s="2">
+      <c r="H38" s="6">
         <v>13</v>
       </c>
-      <c r="I38" s="6">
+      <c r="I38" s="11">
         <v>6</v>
       </c>
-      <c r="J38" t="str">
+      <c r="J38" s="1" t="str">
         <f>IFERROR(VLOOKUP(I38,TabelaPrazosMoedaOrigem!A:D,4,0),"")</f>
         <v>PRÉ RPL 1 DIA</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="6">
         <v>219</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39" s="6">
         <v>0</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="E39" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F39" s="6">
         <v>210</v>
       </c>
-      <c r="G39" s="2">
+      <c r="G39" s="6">
         <v>0</v>
       </c>
-      <c r="H39" s="2">
+      <c r="H39" s="6">
         <v>12</v>
       </c>
-      <c r="J39" t="str">
+      <c r="J39" s="1" t="str">
         <f>IFERROR(VLOOKUP(I39,TabelaPrazosMoedaOrigem!A:D,4,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="6">
         <v>220</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D40" s="6">
         <v>0</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="E40" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="G40" s="2">
+      <c r="G40" s="6">
         <v>0</v>
       </c>
-      <c r="H40" s="2">
+      <c r="H40" s="6">
         <v>6</v>
       </c>
-      <c r="I40" s="6">
+      <c r="I40" s="11">
         <v>1</v>
       </c>
-      <c r="J40" t="str">
+      <c r="J40" s="1" t="str">
         <f>IFERROR(VLOOKUP(I40,TabelaPrazosMoedaOrigem!A:D,4,0),"")</f>
         <v>NEUTRO RPL CURTO PRAZO</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="6">
         <v>230</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D41" s="6">
         <v>0</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="E41" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="G41" s="2">
+      <c r="G41" s="6">
         <v>0</v>
       </c>
-      <c r="H41" s="2">
+      <c r="H41" s="6">
         <v>1</v>
       </c>
-      <c r="I41" s="6">
+      <c r="I41" s="11">
         <v>3</v>
       </c>
-      <c r="J41" t="str">
+      <c r="J41" s="1" t="str">
         <f>IFERROR(VLOOKUP(I41,TabelaPrazosMoedaOrigem!A:D,4,0),"")</f>
         <v>OUTROS RECURSOS SENSÍVEIS A JUROS - EMP BANCOOB/OUTROS</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="6">
         <v>231</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D42" s="6">
         <v>0</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="E42" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="G42" s="2">
+      <c r="G42" s="6">
         <v>0</v>
       </c>
-      <c r="H42" s="2">
+      <c r="H42" s="6">
         <v>2</v>
       </c>
-      <c r="I42" s="6">
+      <c r="I42" s="11">
         <v>4</v>
       </c>
-      <c r="J42" t="str">
+      <c r="J42" s="1" t="str">
         <f>IFERROR(VLOOKUP(I42,TabelaPrazosMoedaOrigem!A:D,4,0),"")</f>
         <v>OUTROS RECURSOS SENSÍVEIS A JUROS - EMP CENTRAL</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="6">
         <v>260</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D43" s="6">
         <v>0</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="E43" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="G43" s="2">
+      <c r="G43" s="6">
         <v>0</v>
       </c>
-      <c r="H43" s="2">
+      <c r="H43" s="6">
         <v>3</v>
       </c>
-      <c r="I43" s="6">
+      <c r="I43" s="11">
         <v>1</v>
       </c>
-      <c r="J43" t="str">
+      <c r="J43" s="1" t="str">
         <f>IFERROR(VLOOKUP(I43,TabelaPrazosMoedaOrigem!A:D,4,0),"")</f>
         <v>NEUTRO RPL CURTO PRAZO</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="6">
         <v>261</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D44" s="6">
         <v>0</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="E44" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="G44" s="2">
+      <c r="G44" s="6">
         <v>1</v>
       </c>
-      <c r="H44" s="2">
+      <c r="H44" s="6">
         <v>14</v>
       </c>
-      <c r="J44" t="str">
+      <c r="J44" s="1" t="str">
         <f>IFERROR(VLOOKUP(I44,TabelaPrazosMoedaOrigem!A:D,4,0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" s="6">
         <v>262</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D45" s="6">
         <v>0</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="E45" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="F45" s="2">
+      <c r="F45" s="6">
         <v>261</v>
       </c>
-      <c r="G45" s="2">
+      <c r="G45" s="6">
         <v>0</v>
       </c>
-      <c r="H45" s="2">
+      <c r="H45" s="6">
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" s="6">
         <v>263</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D46" s="6">
         <v>0</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="E46" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="F46" s="2">
+      <c r="F46" s="6">
         <v>261</v>
       </c>
-      <c r="G46" s="2">
+      <c r="G46" s="6">
         <v>0</v>
       </c>
-      <c r="H46" s="2">
+      <c r="H46" s="6">
         <v>13</v>
       </c>
-      <c r="I46" s="6">
+      <c r="I46" s="11">
         <v>22</v>
       </c>
-      <c r="J46" t="str">
+      <c r="J46" s="1" t="str">
         <f>IFERROR(VLOOKUP(I46,TabelaPrazosMoedaOrigem!A:D,4,0),"")</f>
         <v>PÓS FIXADO SELIC RPL LONGO PRAZO</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" s="6">
         <v>270</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D47" s="6">
         <v>0</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="E47" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="G47" s="2">
+      <c r="G47" s="6">
         <v>0</v>
       </c>
-      <c r="H47" s="2">
+      <c r="H47" s="6">
         <v>16</v>
       </c>
-      <c r="I47" s="6">
+      <c r="I47" s="11">
         <v>2</v>
       </c>
-      <c r="J47" t="str">
+      <c r="J47" s="1" t="str">
         <f>IFERROR(VLOOKUP(I47,TabelaPrazosMoedaOrigem!A:D,4,0),"")</f>
         <v>NEUTRO RPL LONGO PRAZO</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25"/>
-    <row r="49" x14ac:dyDescent="0.25"/>
-    <row r="50" x14ac:dyDescent="0.25"/>
-    <row r="51" x14ac:dyDescent="0.25"/>
-    <row r="52" x14ac:dyDescent="0.25"/>
-    <row r="53" x14ac:dyDescent="0.25"/>
-    <row r="54" x14ac:dyDescent="0.25"/>
-    <row r="55" x14ac:dyDescent="0.25"/>
-    <row r="56" x14ac:dyDescent="0.25"/>
-    <row r="57" x14ac:dyDescent="0.25"/>
-    <row r="58" x14ac:dyDescent="0.25"/>
-    <row r="59" x14ac:dyDescent="0.25"/>
-    <row r="60" x14ac:dyDescent="0.25"/>
-    <row r="61" x14ac:dyDescent="0.25"/>
-    <row r="62" x14ac:dyDescent="0.25"/>
-    <row r="63" x14ac:dyDescent="0.25"/>
-    <row r="64" x14ac:dyDescent="0.25"/>
-    <row r="65" x14ac:dyDescent="0.25"/>
-    <row r="66" x14ac:dyDescent="0.25"/>
-    <row r="67" x14ac:dyDescent="0.25"/>
-    <row r="68" x14ac:dyDescent="0.25"/>
-    <row r="69" x14ac:dyDescent="0.25"/>
-    <row r="70" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2"/>
+    <row r="49" x14ac:dyDescent="0.2"/>
+    <row r="50" x14ac:dyDescent="0.2"/>
+    <row r="51" x14ac:dyDescent="0.2"/>
+    <row r="52" x14ac:dyDescent="0.2"/>
+    <row r="53" x14ac:dyDescent="0.2"/>
+    <row r="54" x14ac:dyDescent="0.2"/>
+    <row r="55" x14ac:dyDescent="0.2"/>
+    <row r="56" x14ac:dyDescent="0.2"/>
+    <row r="57" x14ac:dyDescent="0.2"/>
+    <row r="58" x14ac:dyDescent="0.2"/>
+    <row r="59" x14ac:dyDescent="0.2"/>
+    <row r="60" x14ac:dyDescent="0.2"/>
+    <row r="61" x14ac:dyDescent="0.2"/>
+    <row r="62" x14ac:dyDescent="0.2"/>
+    <row r="63" x14ac:dyDescent="0.2"/>
+    <row r="64" x14ac:dyDescent="0.2"/>
+    <row r="65" x14ac:dyDescent="0.2"/>
+    <row r="66" x14ac:dyDescent="0.2"/>
+    <row r="67" x14ac:dyDescent="0.2"/>
+    <row r="68" x14ac:dyDescent="0.2"/>
+    <row r="69" x14ac:dyDescent="0.2"/>
+    <row r="70" x14ac:dyDescent="0.2"/>
   </sheetData>
   <autoFilter ref="A1:J47" xr:uid="{D06485C4-0EAF-44E5-9BB0-68D61767C42D}"/>
   <printOptions horizontalCentered="1"/>
@@ -4712,483 +4719,483 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="14.33203125" style="7" customWidth="1"/>
+    <col min="1" max="4" width="14.33203125" style="6" customWidth="1"/>
     <col min="5" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="6">
         <v>1</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="6">
         <v>1</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="6">
         <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="6">
         <v>2</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="6">
         <v>2</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <v>2</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <v>3</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="6">
         <v>2</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>4</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <v>2</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <v>8</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="6">
         <v>2</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <v>10</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="6">
         <v>2</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <v>11</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="6">
         <v>2</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="6">
         <v>13</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="6">
         <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="6">
         <v>2</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="6">
         <v>14</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="6">
         <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="6">
         <v>2</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="6">
         <v>15</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="6">
         <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="6">
         <v>2</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="6">
         <v>16</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="6">
         <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="6">
         <v>2</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="6">
         <v>17</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="6">
         <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="6">
         <v>2</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="6">
         <v>90</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="6">
         <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="6">
         <v>2</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="6">
         <v>99</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="6">
         <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="6">
         <v>3</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="6">
         <v>1</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="6">
         <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="6">
         <v>3</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="6">
         <v>2</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="6">
         <v>131</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="6">
         <v>3</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="6">
         <v>3</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="6">
         <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="6">
         <v>3</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="6">
         <v>99</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="6">
         <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="6">
         <v>4</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="6">
         <v>1</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="6">
         <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="6">
         <v>4</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="6">
         <v>2</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="6">
         <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="6">
         <v>4</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="6">
         <v>3</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="6">
         <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="6">
         <v>4</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="6">
         <v>90</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="6">
         <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="6">
         <v>4</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="6">
         <v>99</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="6">
         <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="6">
         <v>8</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="6">
         <v>1</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="6">
         <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26" s="6">
         <v>8</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="6">
         <v>2</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="6">
         <v>135</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="6">
         <v>8</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="6">
         <v>3</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="6">
         <v>136</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="B28" s="8">
+      <c r="B28" s="7">
         <v>8</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28" s="7">
         <v>4</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D28" s="7">
         <v>137</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="6">
         <v>211</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="6">
         <v>213</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="6">
         <v>214</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D32" s="7">
         <v>212</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="D33" s="10">
+      <c r="D33" s="9">
         <v>262</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D34" s="6">
         <v>202</v>
       </c>
     </row>
@@ -5212,775 +5219,777 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="10.199999999999999" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="14.6640625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="45" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" style="12" customWidth="1"/>
-    <col min="6" max="6" width="26.88671875" style="12" customWidth="1"/>
-    <col min="7" max="10" width="14.6640625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="38.33203125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="22" style="11" customWidth="1"/>
+    <col min="7" max="10" width="10.109375" style="6" customWidth="1"/>
     <col min="11" max="14" width="0" style="1" hidden="1" customWidth="1"/>
     <col min="15" max="16384" width="19.44140625" style="1" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:10" s="38" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="36" t="s">
         <v>184</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="36" t="s">
         <v>187</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="36" t="s">
         <v>186</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="37" t="s">
         <v>185</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="37" t="s">
         <v>221</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="37" t="s">
         <v>222</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="36" t="s">
         <v>201</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="36" t="s">
         <v>202</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="36" t="s">
         <v>192</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="36" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="11">
+        <v>4</v>
+      </c>
+      <c r="F2" s="11" t="str">
+        <f>IFERROR(VLOOKUP(E2,TabelaPrecosTransferencia!A:B,2,0),"")</f>
+        <v>DI Mensal</v>
+      </c>
+      <c r="G2" s="6">
+        <v>-999999</v>
+      </c>
+      <c r="H2" s="6">
         <v>1</v>
       </c>
-      <c r="F2" s="12" t="str">
-        <f>IFERROR(VLOOKUP(E2,TabelaPrecosTransferencia!A:B,2,0),"")</f>
-        <v>IPCA Mensal</v>
-      </c>
-      <c r="G2" s="7">
-        <v>-999999</v>
-      </c>
-      <c r="H2" s="7">
+      <c r="I2" s="6">
+        <v>4</v>
+      </c>
+      <c r="J2" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="8" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="E3" s="12">
+        <v>4</v>
+      </c>
+      <c r="F3" s="12" t="str">
+        <f>IFERROR(VLOOKUP(E3,TabelaPrecosTransferencia!A:B,2,0),"")</f>
+        <v>DI Mensal</v>
+      </c>
+      <c r="G3" s="7">
         <v>1</v>
       </c>
-      <c r="I2" s="7">
-        <v>4</v>
-      </c>
-      <c r="J2" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="9" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8">
+      <c r="H3" s="7">
+        <v>999999</v>
+      </c>
+      <c r="I3" s="7">
+        <v>999</v>
+      </c>
+      <c r="J3" s="7">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="10" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="9">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="E4" s="13">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="E3" s="13">
-        <v>1</v>
-      </c>
-      <c r="F3" s="13" t="str">
-        <f>IFERROR(VLOOKUP(E3,TabelaPrecosTransferencia!A:B,2,0),"")</f>
-        <v>IPCA Mensal</v>
-      </c>
-      <c r="G3" s="8">
-        <v>1</v>
-      </c>
-      <c r="H3" s="8">
-        <v>999999</v>
-      </c>
-      <c r="I3" s="8">
-        <v>999</v>
-      </c>
-      <c r="J3" s="8">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="11" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="10">
-        <v>3</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>232</v>
-      </c>
-      <c r="E4" s="14">
-        <v>2</v>
-      </c>
-      <c r="F4" s="14" t="str">
+      <c r="F4" s="13" t="str">
         <f>IFERROR(VLOOKUP(E4,TabelaPrecosTransferencia!A:B,2,0),"")</f>
         <v>Custo Médio Bancoob/Outros Mensal</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="9">
         <v>-999999</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="9">
         <v>999999</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="9">
         <v>1</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="29" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="27">
+    <row r="5" spans="1:10" s="22" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="20">
         <v>4</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="20" t="s">
         <v>240</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="E5" s="28">
+      <c r="E5" s="21">
         <v>3</v>
       </c>
-      <c r="F5" s="28" t="str">
+      <c r="F5" s="21" t="str">
         <f>IFERROR(VLOOKUP(E5,TabelaPrecosTransferencia!A:B,2,0),"")</f>
         <v>Custo Médio Cooperativa Central Mensal</v>
       </c>
-      <c r="G5" s="27">
+      <c r="G5" s="20">
         <v>-999999</v>
       </c>
-      <c r="H5" s="27">
+      <c r="H5" s="20">
         <v>999999</v>
       </c>
-      <c r="I5" s="27">
+      <c r="I5" s="20">
         <v>2</v>
       </c>
-      <c r="J5" s="27">
+      <c r="J5" s="20">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="29" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="27">
+    <row r="6" spans="1:10" s="22" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="20">
         <v>5</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="20" t="s">
         <v>240</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="E6" s="28">
+      <c r="E6" s="21">
         <v>4</v>
       </c>
-      <c r="F6" s="28" t="str">
+      <c r="F6" s="21" t="str">
         <f>IFERROR(VLOOKUP(E6,TabelaPrecosTransferencia!A:B,2,0),"")</f>
         <v>DI Mensal</v>
       </c>
-      <c r="G6" s="27">
+      <c r="G6" s="20">
         <v>-999999</v>
       </c>
-      <c r="H6" s="27">
+      <c r="H6" s="20">
         <v>999999</v>
       </c>
-      <c r="I6" s="27">
+      <c r="I6" s="20">
         <v>3</v>
       </c>
-      <c r="J6" s="27">
+      <c r="J6" s="20">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="29" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="27">
+    <row r="7" spans="1:10" s="22" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="20">
         <v>6</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="E7" s="28">
+      <c r="E7" s="21">
         <v>4</v>
       </c>
-      <c r="F7" s="28" t="str">
+      <c r="F7" s="21" t="str">
         <f>IFERROR(VLOOKUP(E7,TabelaPrecosTransferencia!A:B,2,0),"")</f>
         <v>DI Mensal</v>
       </c>
-      <c r="G7" s="27">
+      <c r="G7" s="20">
         <v>-999999</v>
       </c>
-      <c r="H7" s="27">
+      <c r="H7" s="20">
         <v>1</v>
       </c>
-      <c r="I7" s="27">
+      <c r="I7" s="20">
         <v>5</v>
       </c>
-      <c r="J7" s="27">
+      <c r="J7" s="20">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="9" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8">
+    <row r="8" spans="1:10" s="8" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="12">
         <v>4</v>
       </c>
-      <c r="F8" s="13" t="str">
+      <c r="F8" s="12" t="str">
         <f>IFERROR(VLOOKUP(E8,TabelaPrecosTransferencia!A:B,2,0),"")</f>
         <v>DI Mensal</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="7">
         <v>-999999</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="7">
         <v>1</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="7">
         <v>6</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="7">
+      <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="11">
         <v>5</v>
       </c>
-      <c r="F9" s="12" t="str">
+      <c r="F9" s="11" t="str">
         <f>IFERROR(VLOOKUP(E9,TabelaPrecosTransferencia!A:B,2,0),"")</f>
         <v>DI Futuro 30 dias</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="6">
         <v>2</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="6">
         <v>30</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="6">
         <v>7</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="6">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="9" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="8">
+    <row r="10" spans="1:10" s="8" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="12">
         <v>5</v>
       </c>
-      <c r="F10" s="13" t="str">
+      <c r="F10" s="12" t="str">
         <f>IFERROR(VLOOKUP(E10,TabelaPrecosTransferencia!A:B,2,0),"")</f>
         <v>DI Futuro 30 dias</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="7">
         <v>2</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="7">
         <v>30</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="7">
         <v>8</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J10" s="7">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="32" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="30">
+    <row r="11" spans="1:10" s="25" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="23">
         <v>10</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="E11" s="31">
+      <c r="E11" s="24">
         <v>6</v>
       </c>
-      <c r="F11" s="31" t="str">
+      <c r="F11" s="24" t="str">
         <f>IFERROR(VLOOKUP(E11,TabelaPrecosTransferencia!A:B,2,0),"")</f>
         <v>DI Futuro 60 dias</v>
       </c>
-      <c r="G11" s="30">
+      <c r="G11" s="23">
         <v>31</v>
       </c>
-      <c r="H11" s="30">
+      <c r="H11" s="23">
         <v>60</v>
       </c>
-      <c r="I11" s="30">
+      <c r="I11" s="23">
         <v>9</v>
       </c>
-      <c r="J11" s="30">
+      <c r="J11" s="23">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="9" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="8">
+    <row r="12" spans="1:10" s="8" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="12">
         <v>6</v>
       </c>
-      <c r="F12" s="13" t="str">
+      <c r="F12" s="12" t="str">
         <f>IFERROR(VLOOKUP(E12,TabelaPrecosTransferencia!A:B,2,0),"")</f>
         <v>DI Futuro 60 dias</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="7">
         <v>31</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="7">
         <v>60</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="7">
         <v>10</v>
       </c>
-      <c r="J12" s="8">
+      <c r="J12" s="7">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="32" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="30">
+    <row r="13" spans="1:10" s="25" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="23">
         <v>12</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="D13" s="24" t="s">
         <v>212</v>
       </c>
-      <c r="E13" s="31">
+      <c r="E13" s="24">
         <v>7</v>
       </c>
-      <c r="F13" s="31" t="str">
+      <c r="F13" s="24" t="str">
         <f>IFERROR(VLOOKUP(E13,TabelaPrecosTransferencia!A:B,2,0),"")</f>
         <v>DI Futuro 90 dias</v>
       </c>
-      <c r="G13" s="30">
+      <c r="G13" s="23">
         <v>61</v>
       </c>
-      <c r="H13" s="30">
+      <c r="H13" s="23">
         <v>90</v>
       </c>
-      <c r="I13" s="30">
+      <c r="I13" s="23">
         <v>11</v>
       </c>
-      <c r="J13" s="30">
+      <c r="J13" s="23">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="9" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="8">
+    <row r="14" spans="1:10" s="8" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="12">
         <v>7</v>
       </c>
-      <c r="F14" s="13" t="str">
+      <c r="F14" s="12" t="str">
         <f>IFERROR(VLOOKUP(E14,TabelaPrecosTransferencia!A:B,2,0),"")</f>
         <v>DI Futuro 90 dias</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="7">
         <v>61</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="7">
         <v>90</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I14" s="7">
         <v>12</v>
       </c>
-      <c r="J14" s="8">
+      <c r="J14" s="7">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="7">
+      <c r="A15" s="6">
         <v>14</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="11">
         <v>8</v>
       </c>
-      <c r="F15" s="12" t="str">
+      <c r="F15" s="11" t="str">
         <f>IFERROR(VLOOKUP(E15,TabelaPrecosTransferencia!A:B,2,0),"")</f>
         <v>DI Futuro 180 dias</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="6">
         <v>91</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="6">
         <v>180</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="6">
         <v>13</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J15" s="6">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="9" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="8">
+    <row r="16" spans="1:10" s="8" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="12">
         <v>8</v>
       </c>
-      <c r="F16" s="13" t="str">
+      <c r="F16" s="12" t="str">
         <f>IFERROR(VLOOKUP(E16,TabelaPrecosTransferencia!A:B,2,0),"")</f>
         <v>DI Futuro 180 dias</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="7">
         <v>91</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H16" s="7">
         <v>180</v>
       </c>
-      <c r="I16" s="8">
+      <c r="I16" s="7">
         <v>14</v>
       </c>
-      <c r="J16" s="8">
+      <c r="J16" s="7">
         <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="7">
+      <c r="A17" s="6">
         <v>16</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="11">
         <v>9</v>
       </c>
-      <c r="F17" s="12" t="str">
+      <c r="F17" s="11" t="str">
         <f>IFERROR(VLOOKUP(E17,TabelaPrecosTransferencia!A:B,2,0),"")</f>
         <v>DI Futuro 360 dias</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="6">
         <v>181</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="6">
         <v>360</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="6">
         <v>15</v>
       </c>
-      <c r="J17" s="7">
+      <c r="J17" s="6">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="9" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="8">
+    <row r="18" spans="1:10" s="8" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="7">
         <v>17</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="12">
         <v>9</v>
       </c>
-      <c r="F18" s="13" t="str">
+      <c r="F18" s="12" t="str">
         <f>IFERROR(VLOOKUP(E18,TabelaPrecosTransferencia!A:B,2,0),"")</f>
         <v>DI Futuro 360 dias</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="7">
         <v>181</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H18" s="7">
         <v>360</v>
       </c>
-      <c r="I18" s="8">
+      <c r="I18" s="7">
         <v>16</v>
       </c>
-      <c r="J18" s="8">
+      <c r="J18" s="7">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="7">
+      <c r="A19" s="6">
         <v>18</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="11">
         <v>10</v>
       </c>
-      <c r="F19" s="12" t="str">
+      <c r="F19" s="11" t="str">
         <f>IFERROR(VLOOKUP(E19,TabelaPrecosTransferencia!A:B,2,0),"")</f>
         <v>DI Futuro 720 dias</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="6">
         <v>361</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H19" s="6">
         <v>720</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I19" s="6">
         <v>17</v>
       </c>
-      <c r="J19" s="7">
+      <c r="J19" s="6">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="9" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="8">
+    <row r="20" spans="1:10" s="8" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="7">
         <v>19</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="12">
         <v>10</v>
       </c>
-      <c r="F20" s="13" t="str">
+      <c r="F20" s="12" t="str">
         <f>IFERROR(VLOOKUP(E20,TabelaPrecosTransferencia!A:B,2,0),"")</f>
         <v>DI Futuro 720 dias</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G20" s="7">
         <v>361</v>
       </c>
-      <c r="H20" s="8">
+      <c r="H20" s="7">
         <v>720</v>
       </c>
-      <c r="I20" s="8">
+      <c r="I20" s="7">
         <v>18</v>
       </c>
-      <c r="J20" s="8">
+      <c r="J20" s="7">
         <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="7">
+      <c r="A21" s="6">
         <v>20</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="11">
         <v>11</v>
       </c>
-      <c r="F21" s="12" t="str">
+      <c r="F21" s="11" t="str">
         <f>IFERROR(VLOOKUP(E21,TabelaPrecosTransferencia!A:B,2,0),"")</f>
         <v>DI Futuro 1800 dias</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="6">
         <v>720</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H21" s="6">
         <v>999999</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I21" s="6">
         <v>19</v>
       </c>
-      <c r="J21" s="7">
+      <c r="J21" s="6">
         <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="8">
+      <c r="A22" s="7">
         <v>21</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="12">
         <v>11</v>
       </c>
-      <c r="F22" s="13" t="str">
+      <c r="F22" s="12" t="str">
         <f>IFERROR(VLOOKUP(E22,TabelaPrecosTransferencia!A:B,2,0),"")</f>
         <v>DI Futuro 1800 dias</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G22" s="7">
         <v>720</v>
       </c>
-      <c r="H22" s="8">
+      <c r="H22" s="7">
         <v>999999</v>
       </c>
-      <c r="I22" s="8">
+      <c r="I22" s="7">
         <v>20</v>
       </c>
-      <c r="J22" s="8">
+      <c r="J22" s="7">
         <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="7">
+      <c r="A23" s="6">
         <v>22</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="E23" s="12">
+      <c r="E23" s="11">
         <v>19</v>
       </c>
-      <c r="F23" s="12" t="str">
+      <c r="F23" s="11" t="str">
         <f>IFERROR(VLOOKUP(E23,TabelaPrecosTransferencia!A:B,2,0),"")</f>
         <v>Selic Mensal</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23" s="6">
         <v>-999999</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H23" s="6">
         <v>999999</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I23" s="6">
         <v>998</v>
       </c>
-      <c r="J23" s="7">
+      <c r="J23" s="6">
         <v>998</v>
       </c>
     </row>
@@ -6034,23 +6043,23 @@
     <col min="1" max="1" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.6640625" customWidth="1"/>
     <col min="3" max="4" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" style="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" style="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>259</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="26" t="s">
         <v>262</v>
       </c>
     </row>
@@ -6188,7 +6197,7 @@
       <c r="D13" s="2">
         <v>4</v>
       </c>
-      <c r="E13" s="34">
+      <c r="E13" s="27">
         <v>1</v>
       </c>
     </row>
@@ -6205,7 +6214,7 @@
       <c r="D14" s="2">
         <v>4</v>
       </c>
-      <c r="E14" s="34">
+      <c r="E14" s="27">
         <v>1.05</v>
       </c>
     </row>
@@ -6222,7 +6231,7 @@
       <c r="D15" s="2">
         <v>4</v>
       </c>
-      <c r="E15" s="34">
+      <c r="E15" s="27">
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -6239,7 +6248,7 @@
       <c r="D16" s="2">
         <v>4</v>
       </c>
-      <c r="E16" s="34">
+      <c r="E16" s="27">
         <v>1.1499999999999999</v>
       </c>
     </row>
@@ -6256,7 +6265,7 @@
       <c r="D17" s="2">
         <v>4</v>
       </c>
-      <c r="E17" s="34">
+      <c r="E17" s="27">
         <v>1.2</v>
       </c>
     </row>
@@ -6273,7 +6282,7 @@
       <c r="D18" s="2">
         <v>4</v>
       </c>
-      <c r="E18" s="34">
+      <c r="E18" s="27">
         <v>1.3</v>
       </c>
     </row>
@@ -6290,7 +6299,7 @@
       <c r="D19" s="2">
         <v>4</v>
       </c>
-      <c r="E19" s="34">
+      <c r="E19" s="27">
         <v>1.5</v>
       </c>
     </row>
@@ -6314,7 +6323,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B4F7B1B-FFA3-47C1-BE92-09E7A0C45633}">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
@@ -6323,20 +6332,20 @@
     <col min="1" max="1" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="44" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" style="41" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" style="34" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>263</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="33" t="s">
         <v>264</v>
       </c>
     </row>
@@ -6351,7 +6360,7 @@
         <f>VLOOKUP(B2,TabelaPrecosTransferencia!A:B,2,0)</f>
         <v>IPCA Mensal</v>
       </c>
-      <c r="D2" s="41">
+      <c r="D2" s="34">
         <v>0.87</v>
       </c>
     </row>
@@ -6366,7 +6375,7 @@
         <f>VLOOKUP(B3,TabelaPrecosTransferencia!A:B,2,0)</f>
         <v>Custo Médio Bancoob/Outros Mensal</v>
       </c>
-      <c r="D3" s="41">
+      <c r="D3" s="34">
         <v>0.43</v>
       </c>
     </row>
@@ -6381,7 +6390,7 @@
         <f>VLOOKUP(B4,TabelaPrecosTransferencia!A:B,2,0)</f>
         <v>Custo Médio Cooperativa Central Mensal</v>
       </c>
-      <c r="D4" s="41">
+      <c r="D4" s="34">
         <v>0.43</v>
       </c>
     </row>
@@ -6396,7 +6405,7 @@
         <f>VLOOKUP(B5,TabelaPrecosTransferencia!A:B,2,0)</f>
         <v>DI Mensal</v>
       </c>
-      <c r="D5" s="41">
+      <c r="D5" s="34">
         <v>0.43</v>
       </c>
     </row>
@@ -6411,7 +6420,7 @@
         <f>VLOOKUP(B6,TabelaPrecosTransferencia!A:B,2,0)</f>
         <v>DI Futuro 30 dias</v>
       </c>
-      <c r="D6" s="41">
+      <c r="D6" s="34">
         <v>0.44240812097819937</v>
       </c>
     </row>
@@ -6426,7 +6435,7 @@
         <f>VLOOKUP(B7,TabelaPrecosTransferencia!A:B,2,0)</f>
         <v>DI Futuro 60 dias</v>
       </c>
-      <c r="D7" s="41">
+      <c r="D7" s="34">
         <v>0.47410646014303115</v>
       </c>
     </row>
@@ -6441,7 +6450,7 @@
         <f>VLOOKUP(B8,TabelaPrecosTransferencia!A:B,2,0)</f>
         <v>DI Futuro 90 dias</v>
       </c>
-      <c r="D8" s="41">
+      <c r="D8" s="34">
         <v>0.50805993126556981</v>
       </c>
     </row>
@@ -6456,7 +6465,7 @@
         <f>VLOOKUP(B9,TabelaPrecosTransferencia!A:B,2,0)</f>
         <v>DI Futuro 180 dias</v>
       </c>
-      <c r="D9" s="41">
+      <c r="D9" s="34">
         <v>0.58809974512248342</v>
       </c>
     </row>
@@ -6471,7 +6480,7 @@
         <f>VLOOKUP(B10,TabelaPrecosTransferencia!A:B,2,0)</f>
         <v>DI Futuro 360 dias</v>
       </c>
-      <c r="D10" s="41">
+      <c r="D10" s="34">
         <v>0.65737059494446193</v>
       </c>
     </row>
@@ -6486,7 +6495,7 @@
         <f>VLOOKUP(B11,TabelaPrecosTransferencia!A:B,2,0)</f>
         <v>DI Futuro 720 dias</v>
       </c>
-      <c r="D11" s="41">
+      <c r="D11" s="34">
         <v>0.71919212972189062</v>
       </c>
     </row>
@@ -6501,7 +6510,7 @@
         <f>VLOOKUP(B12,TabelaPrecosTransferencia!A:B,2,0)</f>
         <v>DI Futuro 1800 dias</v>
       </c>
-      <c r="D12" s="41">
+      <c r="D12" s="34">
         <v>0.78748164364241813</v>
       </c>
     </row>
@@ -6516,7 +6525,7 @@
         <f>VLOOKUP(B13,TabelaPrecosTransferencia!A:B,2,0)</f>
         <v>DI Orçado 30 dias</v>
       </c>
-      <c r="D13" s="41">
+      <c r="D13" s="34">
         <f>VLOOKUP(B13,TabelaPrecosTransferencia!A:E,5,0)*VLOOKUP(VLOOKUP(B13,TabelaPrecosTransferencia!A:D,4,0),$B$2:$D$12,3,0)</f>
         <v>0.43</v>
       </c>
@@ -6532,7 +6541,7 @@
         <f>VLOOKUP(B14,TabelaPrecosTransferencia!A:B,2,0)</f>
         <v>DI Orçado 60 dias</v>
       </c>
-      <c r="D14" s="41">
+      <c r="D14" s="34">
         <f>VLOOKUP(B14,TabelaPrecosTransferencia!A:E,5,0)*VLOOKUP(VLOOKUP(B14,TabelaPrecosTransferencia!A:D,4,0),$B$2:$D$12,3,0)</f>
         <v>0.45150000000000001</v>
       </c>
@@ -6548,7 +6557,7 @@
         <f>VLOOKUP(B15,TabelaPrecosTransferencia!A:B,2,0)</f>
         <v>DI Orçado 90 dias</v>
       </c>
-      <c r="D15" s="41">
+      <c r="D15" s="34">
         <f>VLOOKUP(B15,TabelaPrecosTransferencia!A:E,5,0)*VLOOKUP(VLOOKUP(B15,TabelaPrecosTransferencia!A:D,4,0),$B$2:$D$12,3,0)</f>
         <v>0.47300000000000003</v>
       </c>
@@ -6564,7 +6573,7 @@
         <f>VLOOKUP(B16,TabelaPrecosTransferencia!A:B,2,0)</f>
         <v>DI Orçado 180 dias</v>
       </c>
-      <c r="D16" s="41">
+      <c r="D16" s="34">
         <f>VLOOKUP(B16,TabelaPrecosTransferencia!A:E,5,0)*VLOOKUP(VLOOKUP(B16,TabelaPrecosTransferencia!A:D,4,0),$B$2:$D$12,3,0)</f>
         <v>0.49449999999999994</v>
       </c>
@@ -6580,7 +6589,7 @@
         <f>VLOOKUP(B17,TabelaPrecosTransferencia!A:B,2,0)</f>
         <v>DI Orçado 360 dias</v>
       </c>
-      <c r="D17" s="41">
+      <c r="D17" s="34">
         <f>VLOOKUP(B17,TabelaPrecosTransferencia!A:E,5,0)*VLOOKUP(VLOOKUP(B17,TabelaPrecosTransferencia!A:D,4,0),$B$2:$D$12,3,0)</f>
         <v>0.51600000000000001</v>
       </c>
@@ -6596,7 +6605,7 @@
         <f>VLOOKUP(B18,TabelaPrecosTransferencia!A:B,2,0)</f>
         <v>DI Orçado 720 dias</v>
       </c>
-      <c r="D18" s="41">
+      <c r="D18" s="34">
         <f>VLOOKUP(B18,TabelaPrecosTransferencia!A:E,5,0)*VLOOKUP(VLOOKUP(B18,TabelaPrecosTransferencia!A:D,4,0),$B$2:$D$12,3,0)</f>
         <v>0.55900000000000005</v>
       </c>
@@ -6612,7 +6621,7 @@
         <f>VLOOKUP(B19,TabelaPrecosTransferencia!A:B,2,0)</f>
         <v>DI Orçado 1800 dias</v>
       </c>
-      <c r="D19" s="41">
+      <c r="D19" s="34">
         <f>VLOOKUP(B19,TabelaPrecosTransferencia!A:E,5,0)*VLOOKUP(VLOOKUP(B19,TabelaPrecosTransferencia!A:D,4,0),$B$2:$D$12,3,0)</f>
         <v>0.64500000000000002</v>
       </c>
@@ -6628,7 +6637,7 @@
         <f>VLOOKUP(B20,TabelaPrecosTransferencia!A:B,2,0)</f>
         <v>Selic Mensal</v>
       </c>
-      <c r="D20" s="42">
+      <c r="D20" s="35">
         <v>0.43</v>
       </c>
     </row>
@@ -6643,7 +6652,7 @@
         <f>VLOOKUP(B21,TabelaPrecosTransferencia!A:B,2,0)</f>
         <v>IPCA Mensal</v>
       </c>
-      <c r="D21" s="41">
+      <c r="D21" s="34">
         <v>1.1599999999999999</v>
       </c>
     </row>
@@ -6658,7 +6667,7 @@
         <f>VLOOKUP(B22,TabelaPrecosTransferencia!A:B,2,0)</f>
         <v>Custo Médio Bancoob/Outros Mensal</v>
       </c>
-      <c r="D22" s="41">
+      <c r="D22" s="34">
         <v>0.43</v>
       </c>
     </row>
@@ -6673,7 +6682,7 @@
         <f>VLOOKUP(B23,TabelaPrecosTransferencia!A:B,2,0)</f>
         <v>Custo Médio Cooperativa Central Mensal</v>
       </c>
-      <c r="D23" s="41">
+      <c r="D23" s="34">
         <v>0.43</v>
       </c>
     </row>
@@ -6688,7 +6697,7 @@
         <f>VLOOKUP(B24,TabelaPrecosTransferencia!A:B,2,0)</f>
         <v>DI Mensal</v>
       </c>
-      <c r="D24" s="41">
+      <c r="D24" s="34">
         <v>0.44</v>
       </c>
     </row>
@@ -6703,7 +6712,7 @@
         <f>VLOOKUP(B25,TabelaPrecosTransferencia!A:B,2,0)</f>
         <v>DI Futuro 30 dias</v>
       </c>
-      <c r="D25" s="41">
+      <c r="D25" s="34">
         <v>0.50648349497708356</v>
       </c>
     </row>
@@ -6718,7 +6727,7 @@
         <f>VLOOKUP(B26,TabelaPrecosTransferencia!A:B,2,0)</f>
         <v>DI Futuro 60 dias</v>
       </c>
-      <c r="D26" s="41">
+      <c r="D26" s="34">
         <v>0.54188769814262905</v>
       </c>
     </row>
@@ -6733,7 +6742,7 @@
         <f>VLOOKUP(B27,TabelaPrecosTransferencia!A:B,2,0)</f>
         <v>DI Futuro 90 dias</v>
       </c>
-      <c r="D27" s="41">
+      <c r="D27" s="34">
         <v>0.57793747418921626</v>
       </c>
     </row>
@@ -6748,7 +6757,7 @@
         <f>VLOOKUP(B28,TabelaPrecosTransferencia!A:B,2,0)</f>
         <v>DI Futuro 180 dias</v>
       </c>
-      <c r="D28" s="41">
+      <c r="D28" s="34">
         <v>0.64650876169554117</v>
       </c>
     </row>
@@ -6763,7 +6772,7 @@
         <f>VLOOKUP(B29,TabelaPrecosTransferencia!A:B,2,0)</f>
         <v>DI Futuro 360 dias</v>
       </c>
-      <c r="D29" s="41">
+      <c r="D29" s="34">
         <v>0.71919212972189062</v>
       </c>
     </row>
@@ -6778,7 +6787,7 @@
         <f>VLOOKUP(B30,TabelaPrecosTransferencia!A:B,2,0)</f>
         <v>DI Futuro 720 dias</v>
       </c>
-      <c r="D30" s="41">
+      <c r="D30" s="34">
         <v>0.78289382544214359</v>
       </c>
     </row>
@@ -6793,7 +6802,7 @@
         <f>VLOOKUP(B31,TabelaPrecosTransferencia!A:B,2,0)</f>
         <v>DI Futuro 1800 dias</v>
       </c>
-      <c r="D31" s="41">
+      <c r="D31" s="34">
         <v>0.84463641548930823</v>
       </c>
     </row>
@@ -6808,7 +6817,7 @@
         <f>VLOOKUP(B32,TabelaPrecosTransferencia!A:B,2,0)</f>
         <v>DI Orçado 30 dias</v>
       </c>
-      <c r="D32" s="41">
+      <c r="D32" s="34">
         <f>VLOOKUP(B32,TabelaPrecosTransferencia!A:E,5,0)*VLOOKUP(VLOOKUP(B32,TabelaPrecosTransferencia!A:D,4,0),$B$21:$D$31,3,0)</f>
         <v>0.44</v>
       </c>
@@ -6824,7 +6833,7 @@
         <f>VLOOKUP(B33,TabelaPrecosTransferencia!A:B,2,0)</f>
         <v>DI Orçado 60 dias</v>
       </c>
-      <c r="D33" s="41">
+      <c r="D33" s="34">
         <f>VLOOKUP(B33,TabelaPrecosTransferencia!A:E,5,0)*VLOOKUP(VLOOKUP(B33,TabelaPrecosTransferencia!A:D,4,0),$B$21:$D$31,3,0)</f>
         <v>0.46200000000000002</v>
       </c>
@@ -6840,7 +6849,7 @@
         <f>VLOOKUP(B34,TabelaPrecosTransferencia!A:B,2,0)</f>
         <v>DI Orçado 90 dias</v>
       </c>
-      <c r="D34" s="41">
+      <c r="D34" s="34">
         <f>VLOOKUP(B34,TabelaPrecosTransferencia!A:E,5,0)*VLOOKUP(VLOOKUP(B34,TabelaPrecosTransferencia!A:D,4,0),$B$21:$D$31,3,0)</f>
         <v>0.48400000000000004</v>
       </c>
@@ -6856,7 +6865,7 @@
         <f>VLOOKUP(B35,TabelaPrecosTransferencia!A:B,2,0)</f>
         <v>DI Orçado 180 dias</v>
       </c>
-      <c r="D35" s="41">
+      <c r="D35" s="34">
         <f>VLOOKUP(B35,TabelaPrecosTransferencia!A:E,5,0)*VLOOKUP(VLOOKUP(B35,TabelaPrecosTransferencia!A:D,4,0),$B$21:$D$31,3,0)</f>
         <v>0.50600000000000001</v>
       </c>
@@ -6872,7 +6881,7 @@
         <f>VLOOKUP(B36,TabelaPrecosTransferencia!A:B,2,0)</f>
         <v>DI Orçado 360 dias</v>
       </c>
-      <c r="D36" s="41">
+      <c r="D36" s="34">
         <f>VLOOKUP(B36,TabelaPrecosTransferencia!A:E,5,0)*VLOOKUP(VLOOKUP(B36,TabelaPrecosTransferencia!A:D,4,0),$B$21:$D$31,3,0)</f>
         <v>0.52800000000000002</v>
       </c>
@@ -6888,7 +6897,7 @@
         <f>VLOOKUP(B37,TabelaPrecosTransferencia!A:B,2,0)</f>
         <v>DI Orçado 720 dias</v>
       </c>
-      <c r="D37" s="41">
+      <c r="D37" s="34">
         <f>VLOOKUP(B37,TabelaPrecosTransferencia!A:E,5,0)*VLOOKUP(VLOOKUP(B37,TabelaPrecosTransferencia!A:D,4,0),$B$21:$D$31,3,0)</f>
         <v>0.57200000000000006</v>
       </c>
@@ -6904,7 +6913,7 @@
         <f>VLOOKUP(B38,TabelaPrecosTransferencia!A:B,2,0)</f>
         <v>DI Orçado 1800 dias</v>
       </c>
-      <c r="D38" s="41">
+      <c r="D38" s="34">
         <f>VLOOKUP(B38,TabelaPrecosTransferencia!A:E,5,0)*VLOOKUP(VLOOKUP(B38,TabelaPrecosTransferencia!A:D,4,0),$B$21:$D$31,3,0)</f>
         <v>0.66</v>
       </c>
@@ -6920,7 +6929,7 @@
         <f>VLOOKUP(B39,TabelaPrecosTransferencia!A:B,2,0)</f>
         <v>Selic Mensal</v>
       </c>
-      <c r="D39" s="41">
+      <c r="D39" s="34">
         <v>0.44</v>
       </c>
     </row>
@@ -6956,108 +6965,108 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="41" t="s">
         <v>272</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="43" t="s">
         <v>273</v>
       </c>
-      <c r="C3" s="47"/>
+      <c r="C3" s="44"/>
     </row>
     <row r="4" spans="1:5" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="45"/>
-      <c r="B4" s="35" t="s">
+      <c r="A4" s="42"/>
+      <c r="B4" s="28" t="s">
         <v>274</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="30" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="38">
+      <c r="A5" s="31">
         <v>1</v>
       </c>
-      <c r="B5" s="36">
+      <c r="B5" s="29">
         <v>6.15</v>
       </c>
-      <c r="C5" s="39">
+      <c r="C5" s="32">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="38">
+      <c r="A6" s="31">
         <v>7</v>
       </c>
-      <c r="B6" s="36">
+      <c r="B6" s="29">
         <v>6.24</v>
       </c>
-      <c r="C6" s="39">
+      <c r="C6" s="32">
         <v>6.37</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="38">
+      <c r="A7" s="31">
         <v>13</v>
       </c>
-      <c r="B7" s="36">
+      <c r="B7" s="29">
         <v>6.25</v>
       </c>
-      <c r="C7" s="39">
+      <c r="C7" s="32">
         <v>5.47</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="38">
+      <c r="A8" s="31">
         <v>14</v>
       </c>
-      <c r="B8" s="36">
+      <c r="B8" s="29">
         <v>6.25</v>
       </c>
-      <c r="C8" s="39">
+      <c r="C8" s="32">
         <v>5.72</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="38">
+      <c r="A9" s="31">
         <v>15</v>
       </c>
-      <c r="B9" s="36">
+      <c r="B9" s="29">
         <v>6.25</v>
       </c>
-      <c r="C9" s="39">
+      <c r="C9" s="32">
         <v>5.94</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="38">
+      <c r="A10" s="31">
         <v>21</v>
       </c>
-      <c r="B10" s="36">
+      <c r="B10" s="29">
         <v>6.25</v>
       </c>
-      <c r="C10" s="39">
+      <c r="C10" s="32">
         <v>5.94</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="38">
+      <c r="A11" s="31">
         <v>28</v>
       </c>
-      <c r="B11" s="36">
+      <c r="B11" s="29">
         <v>6.25</v>
       </c>
-      <c r="C11" s="39">
+      <c r="C11" s="32">
         <v>6.06</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="38">
+      <c r="A12" s="31">
         <v>29</v>
       </c>
-      <c r="B12" s="36">
+      <c r="B12" s="29">
         <v>6.25</v>
       </c>
-      <c r="C12" s="39">
+      <c r="C12" s="32">
         <v>6.16</v>
       </c>
       <c r="D12">
@@ -7070,57 +7079,57 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="38">
+      <c r="A13" s="31">
         <v>32</v>
       </c>
-      <c r="B13" s="36">
+      <c r="B13" s="29">
         <v>6.25</v>
       </c>
-      <c r="C13" s="39">
+      <c r="C13" s="32">
         <v>5.85</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="38">
+      <c r="A14" s="31">
         <v>34</v>
       </c>
-      <c r="B14" s="36">
+      <c r="B14" s="29">
         <v>6.3</v>
       </c>
-      <c r="C14" s="39">
+      <c r="C14" s="32">
         <v>5.81</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="38">
+      <c r="A15" s="31">
         <v>47</v>
       </c>
-      <c r="B15" s="36">
+      <c r="B15" s="29">
         <v>6.54</v>
       </c>
-      <c r="C15" s="39">
+      <c r="C15" s="32">
         <v>5.95</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="38">
+      <c r="A16" s="31">
         <v>50</v>
       </c>
-      <c r="B16" s="36">
+      <c r="B16" s="29">
         <v>6.6</v>
       </c>
-      <c r="C16" s="39">
+      <c r="C16" s="32">
         <v>6.22</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="38">
+      <c r="A17" s="31">
         <v>60</v>
       </c>
-      <c r="B17" s="36">
+      <c r="B17" s="29">
         <v>6.7</v>
       </c>
-      <c r="C17" s="39">
+      <c r="C17" s="32">
         <v>6.21</v>
       </c>
       <c r="D17">
@@ -7133,90 +7142,90 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="38">
+      <c r="A18" s="31">
         <v>61</v>
       </c>
-      <c r="B18" s="36">
+      <c r="B18" s="29">
         <v>6.71</v>
       </c>
-      <c r="C18" s="39">
+      <c r="C18" s="32">
         <v>6.27</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="38">
+      <c r="A19" s="31">
         <v>62</v>
       </c>
-      <c r="B19" s="36">
+      <c r="B19" s="29">
         <v>6.72</v>
       </c>
-      <c r="C19" s="39">
+      <c r="C19" s="32">
         <v>6.34</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="38">
+      <c r="A20" s="31">
         <v>71</v>
       </c>
-      <c r="B20" s="36">
+      <c r="B20" s="29">
         <v>6.92</v>
       </c>
-      <c r="C20" s="39">
+      <c r="C20" s="32">
         <v>6.67</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="38">
+      <c r="A21" s="31">
         <v>76</v>
       </c>
-      <c r="B21" s="36">
+      <c r="B21" s="29">
         <v>6.98</v>
       </c>
-      <c r="C21" s="39">
+      <c r="C21" s="32">
         <v>6.68</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="38">
+      <c r="A22" s="31">
         <v>77</v>
       </c>
-      <c r="B22" s="36">
+      <c r="B22" s="29">
         <v>7</v>
       </c>
-      <c r="C22" s="39">
+      <c r="C22" s="32">
         <v>6.75</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="38">
+      <c r="A23" s="31">
         <v>78</v>
       </c>
-      <c r="B23" s="36">
+      <c r="B23" s="29">
         <v>7.02</v>
       </c>
-      <c r="C23" s="39">
+      <c r="C23" s="32">
         <v>6.81</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="38">
+      <c r="A24" s="31">
         <v>82</v>
       </c>
-      <c r="B24" s="36">
+      <c r="B24" s="29">
         <v>7.06</v>
       </c>
-      <c r="C24" s="39">
+      <c r="C24" s="32">
         <v>6.76</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="38">
+      <c r="A25" s="31">
         <v>90</v>
       </c>
-      <c r="B25" s="36">
+      <c r="B25" s="29">
         <v>7.16</v>
       </c>
-      <c r="C25" s="39">
+      <c r="C25" s="32">
         <v>6.92</v>
       </c>
       <c r="D25">
@@ -7229,189 +7238,189 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="38">
+      <c r="A26" s="31">
         <v>91</v>
       </c>
-      <c r="B26" s="36">
+      <c r="B26" s="29">
         <v>7.17</v>
       </c>
-      <c r="C26" s="39">
+      <c r="C26" s="32">
         <v>6.98</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="38">
+      <c r="A27" s="31">
         <v>95</v>
       </c>
-      <c r="B27" s="36">
+      <c r="B27" s="29">
         <v>7.2</v>
       </c>
-      <c r="C27" s="39">
+      <c r="C27" s="32">
         <v>6.92</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="38">
+      <c r="A28" s="31">
         <v>109</v>
       </c>
-      <c r="B28" s="36">
+      <c r="B28" s="29">
         <v>7.35</v>
       </c>
-      <c r="C28" s="39">
+      <c r="C28" s="32">
         <v>7.12</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="38">
+      <c r="A29" s="31">
         <v>120</v>
       </c>
-      <c r="B29" s="36">
+      <c r="B29" s="29">
         <v>7.46</v>
       </c>
-      <c r="C29" s="39">
+      <c r="C29" s="32">
         <v>7.37</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="38">
+      <c r="A30" s="31">
         <v>123</v>
       </c>
-      <c r="B30" s="36">
+      <c r="B30" s="29">
         <v>7.47</v>
       </c>
-      <c r="C30" s="39">
+      <c r="C30" s="32">
         <v>7.28</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="38">
+      <c r="A31" s="31">
         <v>124</v>
       </c>
-      <c r="B31" s="36">
+      <c r="B31" s="29">
         <v>7.48</v>
       </c>
-      <c r="C31" s="39">
+      <c r="C31" s="32">
         <v>7.32</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="38">
+      <c r="A32" s="31">
         <v>138</v>
       </c>
-      <c r="B32" s="36">
+      <c r="B32" s="29">
         <v>7.65</v>
       </c>
-      <c r="C32" s="39">
+      <c r="C32" s="32">
         <v>7.52</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="38">
+      <c r="A33" s="31">
         <v>139</v>
       </c>
-      <c r="B33" s="36">
+      <c r="B33" s="29">
         <v>7.67</v>
       </c>
-      <c r="C33" s="39">
+      <c r="C33" s="32">
         <v>7.56</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="38">
+      <c r="A34" s="31">
         <v>147</v>
       </c>
-      <c r="B34" s="36">
+      <c r="B34" s="29">
         <v>7.75</v>
       </c>
-      <c r="C34" s="39">
+      <c r="C34" s="32">
         <v>7.68</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="38">
+      <c r="A35" s="31">
         <v>148</v>
       </c>
-      <c r="B35" s="36">
+      <c r="B35" s="29">
         <v>7.76</v>
       </c>
-      <c r="C35" s="39">
+      <c r="C35" s="32">
         <v>7.72</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="38">
+      <c r="A36" s="31">
         <v>153</v>
       </c>
-      <c r="B36" s="36">
+      <c r="B36" s="29">
         <v>7.78</v>
       </c>
-      <c r="C36" s="39">
+      <c r="C36" s="32">
         <v>7.54</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="38">
+      <c r="A37" s="31">
         <v>162</v>
       </c>
-      <c r="B37" s="36">
+      <c r="B37" s="29">
         <v>7.88</v>
       </c>
-      <c r="C37" s="39">
+      <c r="C37" s="32">
         <v>7.71</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="38">
+      <c r="A38" s="31">
         <v>166</v>
       </c>
-      <c r="B38" s="36">
+      <c r="B38" s="29">
         <v>7.91</v>
       </c>
-      <c r="C38" s="39">
+      <c r="C38" s="32">
         <v>7.68</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="38">
+      <c r="A39" s="31">
         <v>168</v>
       </c>
-      <c r="B39" s="36">
+      <c r="B39" s="29">
         <v>7.94</v>
       </c>
-      <c r="C39" s="39">
+      <c r="C39" s="32">
         <v>7.75</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="38">
+      <c r="A40" s="31">
         <v>169</v>
       </c>
-      <c r="B40" s="36">
+      <c r="B40" s="29">
         <v>7.95</v>
       </c>
-      <c r="C40" s="39">
+      <c r="C40" s="32">
         <v>7.79</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="38">
+      <c r="A41" s="31">
         <v>174</v>
       </c>
-      <c r="B41" s="36">
+      <c r="B41" s="29">
         <v>7.99</v>
       </c>
-      <c r="C41" s="39">
+      <c r="C41" s="32">
         <v>7.8</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="38">
+      <c r="A42" s="31">
         <v>180</v>
       </c>
-      <c r="B42" s="36">
+      <c r="B42" s="29">
         <v>8.0399999999999991</v>
       </c>
-      <c r="C42" s="39">
+      <c r="C42" s="32">
         <v>7.84</v>
       </c>
       <c r="D42">
@@ -7424,365 +7433,365 @@
       </c>
     </row>
     <row r="43" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="38">
+      <c r="A43" s="31">
         <v>182</v>
       </c>
-      <c r="B43" s="36">
+      <c r="B43" s="29">
         <v>8.06</v>
       </c>
-      <c r="C43" s="39">
+      <c r="C43" s="32">
         <v>7.9</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="38">
+      <c r="A44" s="31">
         <v>183</v>
       </c>
-      <c r="B44" s="36">
+      <c r="B44" s="29">
         <v>8.07</v>
       </c>
-      <c r="C44" s="39">
+      <c r="C44" s="32">
         <v>7.93</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="38">
+      <c r="A45" s="31">
         <v>195</v>
       </c>
-      <c r="B45" s="36">
+      <c r="B45" s="29">
         <v>8.17</v>
       </c>
-      <c r="C45" s="39">
+      <c r="C45" s="32">
         <v>8.02</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="38">
+      <c r="A46" s="31">
         <v>200</v>
       </c>
-      <c r="B46" s="36">
+      <c r="B46" s="29">
         <v>8.1999999999999993</v>
       </c>
-      <c r="C46" s="39">
+      <c r="C46" s="32">
         <v>7.95</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="38">
+      <c r="A47" s="31">
         <v>210</v>
       </c>
-      <c r="B47" s="36">
+      <c r="B47" s="29">
         <v>8.27</v>
       </c>
-      <c r="C47" s="39">
+      <c r="C47" s="32">
         <v>8.0399999999999991</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="38">
+      <c r="A48" s="31">
         <v>211</v>
       </c>
-      <c r="B48" s="36">
+      <c r="B48" s="29">
         <v>8.2899999999999991</v>
       </c>
-      <c r="C48" s="39">
+      <c r="C48" s="32">
         <v>8.07</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="38">
+      <c r="A49" s="31">
         <v>214</v>
       </c>
-      <c r="B49" s="36">
+      <c r="B49" s="29">
         <v>8.3000000000000007</v>
       </c>
-      <c r="C49" s="39">
+      <c r="C49" s="32">
         <v>8.02</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="38">
+      <c r="A50" s="31">
         <v>228</v>
       </c>
-      <c r="B50" s="36">
+      <c r="B50" s="29">
         <v>8.4</v>
       </c>
-      <c r="C50" s="39">
+      <c r="C50" s="32">
         <v>8.14</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="38">
+      <c r="A51" s="31">
         <v>235</v>
       </c>
-      <c r="B51" s="36">
+      <c r="B51" s="29">
         <v>8.44</v>
       </c>
-      <c r="C51" s="39">
+      <c r="C51" s="32">
         <v>8.1999999999999993</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="38">
+      <c r="A52" s="31">
         <v>242</v>
       </c>
-      <c r="B52" s="36">
+      <c r="B52" s="29">
         <v>8.48</v>
       </c>
-      <c r="C52" s="39">
+      <c r="C52" s="32">
         <v>8.25</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="38">
+      <c r="A53" s="31">
         <v>243</v>
       </c>
-      <c r="B53" s="36">
+      <c r="B53" s="29">
         <v>8.49</v>
       </c>
-      <c r="C53" s="39">
+      <c r="C53" s="32">
         <v>8.2799999999999994</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="38">
+      <c r="A54" s="31">
         <v>244</v>
       </c>
-      <c r="B54" s="36">
+      <c r="B54" s="29">
         <v>8.5</v>
       </c>
-      <c r="C54" s="39">
+      <c r="C54" s="32">
         <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="38">
+      <c r="A55" s="31">
         <v>258</v>
       </c>
-      <c r="B55" s="36">
+      <c r="B55" s="29">
         <v>8.58</v>
       </c>
-      <c r="C55" s="39">
+      <c r="C55" s="32">
         <v>8.4</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="38">
+      <c r="A56" s="31">
         <v>260</v>
       </c>
-      <c r="B56" s="36">
+      <c r="B56" s="29">
         <v>8.59</v>
       </c>
-      <c r="C56" s="39">
+      <c r="C56" s="32">
         <v>8.39</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="38">
+      <c r="A57" s="31">
         <v>270</v>
       </c>
-      <c r="B57" s="36">
+      <c r="B57" s="29">
         <v>8.6300000000000008</v>
       </c>
-      <c r="C57" s="39">
+      <c r="C57" s="32">
         <v>8.39</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="38">
+      <c r="A58" s="31">
         <v>272</v>
       </c>
-      <c r="B58" s="36">
+      <c r="B58" s="29">
         <v>8.64</v>
       </c>
-      <c r="C58" s="39">
+      <c r="C58" s="32">
         <v>8.43</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="38">
+      <c r="A59" s="31">
         <v>273</v>
       </c>
-      <c r="B59" s="36">
+      <c r="B59" s="29">
         <v>8.65</v>
       </c>
-      <c r="C59" s="39">
+      <c r="C59" s="32">
         <v>8.4499999999999993</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="38">
+      <c r="A60" s="31">
         <v>274</v>
       </c>
-      <c r="B60" s="36">
+      <c r="B60" s="29">
         <v>8.66</v>
       </c>
-      <c r="C60" s="39">
+      <c r="C60" s="32">
         <v>8.48</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="38">
+      <c r="A61" s="31">
         <v>286</v>
       </c>
-      <c r="B61" s="36">
+      <c r="B61" s="29">
         <v>8.7100000000000009</v>
       </c>
-      <c r="C61" s="39">
+      <c r="C61" s="32">
         <v>8.52</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="38">
+      <c r="A62" s="31">
         <v>288</v>
       </c>
-      <c r="B62" s="36">
+      <c r="B62" s="29">
         <v>8.73</v>
       </c>
-      <c r="C62" s="39">
+      <c r="C62" s="32">
         <v>8.56</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="38">
+      <c r="A63" s="31">
         <v>300</v>
       </c>
-      <c r="B63" s="36">
+      <c r="B63" s="29">
         <v>8.7799999999999994</v>
       </c>
-      <c r="C63" s="39">
+      <c r="C63" s="32">
         <v>8.6</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="38">
+      <c r="A64" s="31">
         <v>301</v>
       </c>
-      <c r="B64" s="36">
+      <c r="B64" s="29">
         <v>8.7899999999999991</v>
       </c>
-      <c r="C64" s="39">
+      <c r="C64" s="32">
         <v>8.6199999999999992</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="38">
+      <c r="A65" s="31">
         <v>302</v>
       </c>
-      <c r="B65" s="36">
+      <c r="B65" s="29">
         <v>8.7899999999999991</v>
       </c>
-      <c r="C65" s="39">
+      <c r="C65" s="32">
         <v>8.64</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="38">
+      <c r="A66" s="31">
         <v>305</v>
       </c>
-      <c r="B66" s="36">
+      <c r="B66" s="29">
         <v>8.8000000000000007</v>
       </c>
-      <c r="C66" s="39">
+      <c r="C66" s="32">
         <v>8.6</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="38">
+      <c r="A67" s="31">
         <v>319</v>
       </c>
-      <c r="B67" s="36">
+      <c r="B67" s="29">
         <v>8.86</v>
       </c>
-      <c r="C67" s="39">
+      <c r="C67" s="32">
         <v>8.68</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="38">
+      <c r="A68" s="31">
         <v>321</v>
       </c>
-      <c r="B68" s="36">
+      <c r="B68" s="29">
         <v>8.8699999999999992</v>
       </c>
-      <c r="C68" s="39">
+      <c r="C68" s="32">
         <v>8.7200000000000006</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="38">
+      <c r="A69" s="31">
         <v>330</v>
       </c>
-      <c r="B69" s="36">
+      <c r="B69" s="29">
         <v>8.91</v>
       </c>
-      <c r="C69" s="39">
+      <c r="C69" s="32">
         <v>8.7899999999999991</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="38">
+      <c r="A70" s="31">
         <v>334</v>
       </c>
-      <c r="B70" s="36">
+      <c r="B70" s="29">
         <v>8.92</v>
       </c>
-      <c r="C70" s="39">
+      <c r="C70" s="32">
         <v>8.77</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="38">
+      <c r="A71" s="31">
         <v>335</v>
       </c>
-      <c r="B71" s="36">
+      <c r="B71" s="29">
         <v>8.92</v>
       </c>
-      <c r="C71" s="39">
+      <c r="C71" s="32">
         <v>8.7799999999999994</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="38">
+      <c r="A72" s="31">
         <v>336</v>
       </c>
-      <c r="B72" s="36">
+      <c r="B72" s="29">
         <v>8.93</v>
       </c>
-      <c r="C72" s="39">
+      <c r="C72" s="32">
         <v>8.8000000000000007</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="38">
+      <c r="A73" s="31">
         <v>350</v>
       </c>
-      <c r="B73" s="36">
+      <c r="B73" s="29">
         <v>8.9600000000000009</v>
       </c>
-      <c r="C73" s="39">
+      <c r="C73" s="32">
         <v>8.8000000000000007</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="38">
+      <c r="A74" s="31">
         <v>357</v>
       </c>
-      <c r="B74" s="36">
+      <c r="B74" s="29">
         <v>8.9700000000000006</v>
       </c>
-      <c r="C74" s="39">
+      <c r="C74" s="32">
         <v>8.82</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="38">
+      <c r="A75" s="31">
         <v>361</v>
       </c>
-      <c r="B75" s="36">
+      <c r="B75" s="29">
         <v>8.98</v>
       </c>
-      <c r="C75" s="39">
+      <c r="C75" s="32">
         <v>8.8000000000000007</v>
       </c>
       <c r="D75">
@@ -7795,442 +7804,442 @@
       </c>
     </row>
     <row r="76" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="38">
+      <c r="A76" s="31">
         <v>365</v>
       </c>
-      <c r="B76" s="36">
+      <c r="B76" s="29">
         <v>8.99</v>
       </c>
-      <c r="C76" s="39">
+      <c r="C76" s="32">
         <v>8.86</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="38">
+      <c r="A77" s="31">
         <v>368</v>
       </c>
-      <c r="B77" s="36">
+      <c r="B77" s="29">
         <v>8.99</v>
       </c>
-      <c r="C77" s="39">
+      <c r="C77" s="32">
         <v>8.82</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="38">
+      <c r="A78" s="31">
         <v>378</v>
       </c>
-      <c r="B78" s="36">
+      <c r="B78" s="29">
         <v>9.02</v>
       </c>
-      <c r="C78" s="39">
+      <c r="C78" s="32">
         <v>8.86</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="38">
+      <c r="A79" s="31">
         <v>382</v>
       </c>
-      <c r="B79" s="36">
+      <c r="B79" s="29">
         <v>9.0299999999999994</v>
       </c>
-      <c r="C79" s="39">
+      <c r="C79" s="32">
         <v>8.84</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="38">
+      <c r="A80" s="31">
         <v>390</v>
       </c>
-      <c r="B80" s="36">
+      <c r="B80" s="29">
         <v>9.0500000000000007</v>
       </c>
-      <c r="C80" s="39">
+      <c r="C80" s="32">
         <v>8.8800000000000008</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="38">
+      <c r="A81" s="31">
         <v>393</v>
       </c>
-      <c r="B81" s="36">
+      <c r="B81" s="29">
         <v>9.06</v>
       </c>
-      <c r="C81" s="39">
+      <c r="C81" s="32">
         <v>8.92</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="38">
+      <c r="A82" s="31">
         <v>396</v>
       </c>
-      <c r="B82" s="36">
+      <c r="B82" s="29">
         <v>9.06</v>
       </c>
-      <c r="C82" s="39">
+      <c r="C82" s="32">
         <v>8.89</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="38">
+      <c r="A83" s="31">
         <v>412</v>
       </c>
-      <c r="B83" s="36">
+      <c r="B83" s="29">
         <v>9.1</v>
       </c>
-      <c r="C83" s="39">
+      <c r="C83" s="32">
         <v>8.89</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="38">
+      <c r="A84" s="31">
         <v>420</v>
       </c>
-      <c r="B84" s="36">
+      <c r="B84" s="29">
         <v>9.1199999999999992</v>
       </c>
-      <c r="C84" s="39">
+      <c r="C84" s="32">
         <v>8.93</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="38">
+      <c r="A85" s="31">
         <v>426</v>
       </c>
-      <c r="B85" s="36">
+      <c r="B85" s="29">
         <v>9.1300000000000008</v>
       </c>
-      <c r="C85" s="39">
+      <c r="C85" s="32">
         <v>8.93</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="38">
+      <c r="A86" s="31">
         <v>440</v>
       </c>
-      <c r="B86" s="36">
+      <c r="B86" s="29">
         <v>9.16</v>
       </c>
-      <c r="C86" s="39">
+      <c r="C86" s="32">
         <v>8.98</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="38">
+      <c r="A87" s="31">
         <v>447</v>
       </c>
-      <c r="B87" s="36">
+      <c r="B87" s="29">
         <v>9.18</v>
       </c>
-      <c r="C87" s="39">
+      <c r="C87" s="32">
         <v>9</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="38">
+      <c r="A88" s="31">
         <v>452</v>
       </c>
-      <c r="B88" s="36">
+      <c r="B88" s="29">
         <v>9.19</v>
       </c>
-      <c r="C88" s="39">
+      <c r="C88" s="32">
         <v>8.99</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="38">
+      <c r="A89" s="31">
         <v>455</v>
       </c>
-      <c r="B89" s="36">
+      <c r="B89" s="29">
         <v>9.1999999999999993</v>
       </c>
-      <c r="C89" s="39">
+      <c r="C89" s="32">
         <v>9.0299999999999994</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="38">
+      <c r="A90" s="31">
         <v>459</v>
       </c>
-      <c r="B90" s="36">
+      <c r="B90" s="29">
         <v>9.1999999999999993</v>
       </c>
-      <c r="C90" s="39">
+      <c r="C90" s="32">
         <v>9.01</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="38">
+      <c r="A91" s="31">
         <v>473</v>
       </c>
-      <c r="B91" s="36">
+      <c r="B91" s="29">
         <v>9.24</v>
       </c>
-      <c r="C91" s="39">
+      <c r="C91" s="32">
         <v>9.06</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="38">
+      <c r="A92" s="31">
         <v>480</v>
       </c>
-      <c r="B92" s="36">
+      <c r="B92" s="29">
         <v>9.26</v>
       </c>
-      <c r="C92" s="39">
+      <c r="C92" s="32">
         <v>9.09</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="38">
+      <c r="A93" s="31">
         <v>503</v>
       </c>
-      <c r="B93" s="36">
+      <c r="B93" s="29">
         <v>9.32</v>
       </c>
-      <c r="C93" s="39">
+      <c r="C93" s="32">
         <v>9.18</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="38">
+      <c r="A94" s="31">
         <v>510</v>
       </c>
-      <c r="B94" s="36">
+      <c r="B94" s="29">
         <v>9.33</v>
       </c>
-      <c r="C94" s="39">
+      <c r="C94" s="32">
         <v>9.14</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="38">
+      <c r="A95" s="31">
         <v>517</v>
       </c>
-      <c r="B95" s="36">
+      <c r="B95" s="29">
         <v>9.35</v>
       </c>
-      <c r="C95" s="39">
+      <c r="C95" s="32">
         <v>9.16</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="38">
+      <c r="A96" s="31">
         <v>531</v>
       </c>
-      <c r="B96" s="36">
+      <c r="B96" s="29">
         <v>9.3800000000000008</v>
       </c>
-      <c r="C96" s="39">
+      <c r="C96" s="32">
         <v>9.1999999999999993</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="38">
+      <c r="A97" s="31">
         <v>540</v>
       </c>
-      <c r="B97" s="36">
+      <c r="B97" s="29">
         <v>9.4</v>
       </c>
-      <c r="C97" s="39">
+      <c r="C97" s="32">
         <v>9.25</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="38">
+      <c r="A98" s="31">
         <v>550</v>
       </c>
-      <c r="B98" s="36">
+      <c r="B98" s="29">
         <v>9.42</v>
       </c>
-      <c r="C98" s="39">
+      <c r="C98" s="32">
         <v>9.24</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="38">
+      <c r="A99" s="31">
         <v>559</v>
       </c>
-      <c r="B99" s="36">
+      <c r="B99" s="29">
         <v>9.4499999999999993</v>
       </c>
-      <c r="C99" s="39">
+      <c r="C99" s="32">
         <v>9.26</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="38">
+      <c r="A100" s="31">
         <v>564</v>
       </c>
-      <c r="B100" s="36">
+      <c r="B100" s="29">
         <v>9.4600000000000009</v>
       </c>
-      <c r="C100" s="39">
+      <c r="C100" s="32">
         <v>9.26</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="38">
+      <c r="A101" s="31">
         <v>571</v>
       </c>
-      <c r="B101" s="36">
+      <c r="B101" s="29">
         <v>9.48</v>
       </c>
-      <c r="C101" s="39">
+      <c r="C101" s="32">
         <v>9.26</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="38">
+      <c r="A102" s="31">
         <v>592</v>
       </c>
-      <c r="B102" s="36">
+      <c r="B102" s="29">
         <v>9.5299999999999994</v>
       </c>
-      <c r="C102" s="39">
+      <c r="C102" s="32">
         <v>9.3000000000000007</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="38">
+      <c r="A103" s="31">
         <v>600</v>
       </c>
-      <c r="B103" s="36">
+      <c r="B103" s="29">
         <v>9.5500000000000007</v>
       </c>
-      <c r="C103" s="39">
+      <c r="C103" s="32">
         <v>9.34</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="38">
+      <c r="A104" s="31">
         <v>622</v>
       </c>
-      <c r="B104" s="36">
+      <c r="B104" s="29">
         <v>9.61</v>
       </c>
-      <c r="C104" s="39">
+      <c r="C104" s="32">
         <v>9.39</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="38">
+      <c r="A105" s="31">
         <v>623</v>
       </c>
-      <c r="B105" s="36">
+      <c r="B105" s="29">
         <v>9.61</v>
       </c>
-      <c r="C105" s="39">
+      <c r="C105" s="32">
         <v>9.4</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="38">
+      <c r="A106" s="31">
         <v>630</v>
       </c>
-      <c r="B106" s="36">
+      <c r="B106" s="29">
         <v>9.6300000000000008</v>
       </c>
-      <c r="C106" s="39">
+      <c r="C106" s="32">
         <v>9.42</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="38">
+      <c r="A107" s="31">
         <v>641</v>
       </c>
-      <c r="B107" s="36">
+      <c r="B107" s="29">
         <v>9.65</v>
       </c>
-      <c r="C107" s="39">
+      <c r="C107" s="32">
         <v>9.43</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="38">
+      <c r="A108" s="31">
         <v>655</v>
       </c>
-      <c r="B108" s="36">
+      <c r="B108" s="29">
         <v>9.68</v>
       </c>
-      <c r="C108" s="39">
+      <c r="C108" s="32">
         <v>9.4700000000000006</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="38">
+      <c r="A109" s="31">
         <v>662</v>
       </c>
-      <c r="B109" s="36">
+      <c r="B109" s="29">
         <v>9.6999999999999993</v>
       </c>
-      <c r="C109" s="39">
+      <c r="C109" s="32">
         <v>9.49</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="38">
+      <c r="A110" s="31">
         <v>684</v>
       </c>
-      <c r="B110" s="36">
+      <c r="B110" s="29">
         <v>9.74</v>
       </c>
-      <c r="C110" s="39">
+      <c r="C110" s="32">
         <v>9.56</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="38">
+      <c r="A111" s="31">
         <v>685</v>
       </c>
-      <c r="B111" s="36">
+      <c r="B111" s="29">
         <v>9.75</v>
       </c>
-      <c r="C111" s="39">
+      <c r="C111" s="32">
         <v>9.57</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="38">
+      <c r="A112" s="31">
         <v>690</v>
       </c>
-      <c r="B112" s="36">
+      <c r="B112" s="29">
         <v>9.75</v>
       </c>
-      <c r="C112" s="39">
+      <c r="C112" s="32">
         <v>9.56</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="38">
+      <c r="A113" s="31">
         <v>701</v>
       </c>
-      <c r="B113" s="36">
+      <c r="B113" s="29">
         <v>9.7799999999999994</v>
       </c>
-      <c r="C113" s="39">
+      <c r="C113" s="32">
         <v>9.6199999999999992</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="38">
+      <c r="A114" s="31">
         <v>715</v>
       </c>
-      <c r="B114" s="36">
+      <c r="B114" s="29">
         <v>9.8000000000000007</v>
       </c>
-      <c r="C114" s="39">
+      <c r="C114" s="32">
         <v>9.6300000000000008</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="38">
+      <c r="A115" s="31">
         <v>720</v>
       </c>
-      <c r="B115" s="36">
+      <c r="B115" s="29">
         <v>9.81</v>
       </c>
-      <c r="C115" s="39">
+      <c r="C115" s="32">
         <v>9.6300000000000008</v>
       </c>
       <c r="D115">
@@ -8243,519 +8252,519 @@
       </c>
     </row>
     <row r="116" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="38">
+      <c r="A116" s="31">
         <v>721</v>
       </c>
-      <c r="B116" s="36">
+      <c r="B116" s="29">
         <v>9.81</v>
       </c>
-      <c r="C116" s="39">
+      <c r="C116" s="32">
         <v>9.64</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="38">
+      <c r="A117" s="31">
         <v>732</v>
       </c>
-      <c r="B117" s="36">
+      <c r="B117" s="29">
         <v>9.83</v>
       </c>
-      <c r="C117" s="39">
+      <c r="C117" s="32">
         <v>9.64</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="38">
+      <c r="A118" s="31">
         <v>746</v>
       </c>
-      <c r="B118" s="36">
+      <c r="B118" s="29">
         <v>9.85</v>
       </c>
-      <c r="C118" s="39">
+      <c r="C118" s="32">
         <v>9.64</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="38">
+      <c r="A119" s="31">
         <v>748</v>
       </c>
-      <c r="B119" s="36">
+      <c r="B119" s="29">
         <v>9.85</v>
       </c>
-      <c r="C119" s="39">
+      <c r="C119" s="32">
         <v>9.66</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="38">
+      <c r="A120" s="31">
         <v>750</v>
       </c>
-      <c r="B120" s="36">
+      <c r="B120" s="29">
         <v>9.85</v>
       </c>
-      <c r="C120" s="39">
+      <c r="C120" s="32">
         <v>9.68</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="38">
+      <c r="A121" s="31">
         <v>777</v>
       </c>
-      <c r="B121" s="36">
+      <c r="B121" s="29">
         <v>9.8800000000000008</v>
       </c>
-      <c r="C121" s="39">
+      <c r="C121" s="32">
         <v>9.67</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="38">
+      <c r="A122" s="31">
         <v>781</v>
       </c>
-      <c r="B122" s="36">
+      <c r="B122" s="29">
         <v>9.89</v>
       </c>
-      <c r="C122" s="39">
+      <c r="C122" s="32">
         <v>9.66</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="38">
+      <c r="A123" s="31">
         <v>810</v>
       </c>
-      <c r="B123" s="36">
+      <c r="B123" s="29">
         <v>9.92</v>
       </c>
-      <c r="C123" s="39">
+      <c r="C123" s="32">
         <v>9.7200000000000006</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="38">
+      <c r="A124" s="31">
         <v>824</v>
       </c>
-      <c r="B124" s="36">
+      <c r="B124" s="29">
         <v>9.93</v>
       </c>
-      <c r="C124" s="39">
+      <c r="C124" s="32">
         <v>9.6999999999999993</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="38">
+      <c r="A125" s="31">
         <v>840</v>
       </c>
-      <c r="B125" s="36">
+      <c r="B125" s="29">
         <v>9.9499999999999993</v>
       </c>
-      <c r="C125" s="39">
+      <c r="C125" s="32">
         <v>9.74</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="38">
+      <c r="A126" s="31">
         <v>868</v>
       </c>
-      <c r="B126" s="36">
+      <c r="B126" s="29">
         <v>9.99</v>
       </c>
-      <c r="C126" s="39">
+      <c r="C126" s="32">
         <v>9.75</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="38">
+      <c r="A127" s="31">
         <v>872</v>
       </c>
-      <c r="B127" s="36">
+      <c r="B127" s="29">
         <v>9.99</v>
       </c>
-      <c r="C127" s="39">
+      <c r="C127" s="32">
         <v>9.74</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="38">
+      <c r="A128" s="31">
         <v>900</v>
       </c>
-      <c r="B128" s="36">
+      <c r="B128" s="29">
         <v>10.02</v>
       </c>
-      <c r="C128" s="39">
+      <c r="C128" s="32">
         <v>9.7899999999999991</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="38">
+      <c r="A129" s="31">
         <v>914</v>
       </c>
-      <c r="B129" s="36">
+      <c r="B129" s="29">
         <v>10.039999999999999</v>
       </c>
-      <c r="C129" s="39">
+      <c r="C129" s="32">
         <v>9.7899999999999991</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="38">
+      <c r="A130" s="31">
         <v>928</v>
       </c>
-      <c r="B130" s="36">
+      <c r="B130" s="29">
         <v>10.06</v>
       </c>
-      <c r="C130" s="39">
+      <c r="C130" s="32">
         <v>9.82</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="38">
+      <c r="A131" s="31">
         <v>930</v>
       </c>
-      <c r="B131" s="36">
+      <c r="B131" s="29">
         <v>10.06</v>
       </c>
-      <c r="C131" s="39">
+      <c r="C131" s="32">
         <v>9.83</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="38">
+      <c r="A132" s="31">
         <v>958</v>
       </c>
-      <c r="B132" s="36">
+      <c r="B132" s="29">
         <v>10.09</v>
       </c>
-      <c r="C132" s="39">
+      <c r="C132" s="32">
         <v>9.86</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="38">
+      <c r="A133" s="31">
         <v>960</v>
       </c>
-      <c r="B133" s="36">
+      <c r="B133" s="29">
         <v>10.09</v>
       </c>
-      <c r="C133" s="39">
+      <c r="C133" s="32">
         <v>9.8699999999999992</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="38">
+      <c r="A134" s="31">
         <v>991</v>
       </c>
-      <c r="B134" s="36">
+      <c r="B134" s="29">
         <v>10.130000000000001</v>
       </c>
-      <c r="C134" s="39">
+      <c r="C134" s="32">
         <v>9.8800000000000008</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="38">
+      <c r="A135" s="31">
         <v>1005</v>
       </c>
-      <c r="B135" s="36">
+      <c r="B135" s="29">
         <v>10.14</v>
       </c>
-      <c r="C135" s="39">
+      <c r="C135" s="32">
         <v>9.91</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="38">
+      <c r="A136" s="31">
         <v>1020</v>
       </c>
-      <c r="B136" s="36">
+      <c r="B136" s="29">
         <v>10.16</v>
       </c>
-      <c r="C136" s="39">
+      <c r="C136" s="32">
         <v>9.94</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="38">
+      <c r="A137" s="31">
         <v>1050</v>
       </c>
-      <c r="B137" s="36">
+      <c r="B137" s="29">
         <v>10.199999999999999</v>
       </c>
-      <c r="C137" s="39">
+      <c r="C137" s="32">
         <v>9.99</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="38">
+      <c r="A138" s="31">
         <v>1082</v>
       </c>
-      <c r="B138" s="36">
+      <c r="B138" s="29">
         <v>10.23</v>
       </c>
-      <c r="C138" s="39">
+      <c r="C138" s="32">
         <v>10.029999999999999</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="38">
+      <c r="A139" s="31">
         <v>1097</v>
       </c>
-      <c r="B139" s="36">
+      <c r="B139" s="29">
         <v>10.25</v>
       </c>
-      <c r="C139" s="39">
+      <c r="C139" s="32">
         <v>10.06</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="38">
+      <c r="A140" s="31">
         <v>1106</v>
       </c>
-      <c r="B140" s="36">
+      <c r="B140" s="29">
         <v>10.25</v>
       </c>
-      <c r="C140" s="39">
+      <c r="C140" s="32">
         <v>10.07</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="38">
+      <c r="A141" s="31">
         <v>1110</v>
       </c>
-      <c r="B141" s="36">
+      <c r="B141" s="29">
         <v>10.26</v>
       </c>
-      <c r="C141" s="39">
+      <c r="C141" s="32">
         <v>10.06</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="38">
+      <c r="A142" s="31">
         <v>1140</v>
       </c>
-      <c r="B142" s="36">
+      <c r="B142" s="29">
         <v>10.27</v>
       </c>
-      <c r="C142" s="39">
+      <c r="C142" s="32">
         <v>10.09</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="38">
+      <c r="A143" s="31">
         <v>1145</v>
       </c>
-      <c r="B143" s="36">
+      <c r="B143" s="29">
         <v>10.27</v>
       </c>
-      <c r="C143" s="39">
+      <c r="C143" s="32">
         <v>10.07</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="38">
+      <c r="A144" s="31">
         <v>1170</v>
       </c>
-      <c r="B144" s="36">
+      <c r="B144" s="29">
         <v>10.28</v>
       </c>
-      <c r="C144" s="39">
+      <c r="C144" s="32">
         <v>10.1</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="38">
+      <c r="A145" s="31">
         <v>1190</v>
       </c>
-      <c r="B145" s="36">
+      <c r="B145" s="29">
         <v>10.28</v>
       </c>
-      <c r="C145" s="39">
+      <c r="C145" s="32">
         <v>10.09</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="38">
+      <c r="A146" s="31">
         <v>1201</v>
       </c>
-      <c r="B146" s="36">
+      <c r="B146" s="29">
         <v>10.29</v>
       </c>
-      <c r="C146" s="39">
+      <c r="C146" s="32">
         <v>10.09</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="38">
+      <c r="A147" s="31">
         <v>1236</v>
       </c>
-      <c r="B147" s="36">
+      <c r="B147" s="29">
         <v>10.31</v>
       </c>
-      <c r="C147" s="39">
+      <c r="C147" s="32">
         <v>10.119999999999999</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="38">
+      <c r="A148" s="31">
         <v>1279</v>
       </c>
-      <c r="B148" s="36">
+      <c r="B148" s="29">
         <v>10.34</v>
       </c>
-      <c r="C148" s="39">
+      <c r="C148" s="32">
         <v>10.14</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="38">
+      <c r="A149" s="31">
         <v>1310</v>
       </c>
-      <c r="B149" s="36">
+      <c r="B149" s="29">
         <v>10.35</v>
       </c>
-      <c r="C149" s="39">
+      <c r="C149" s="32">
         <v>10.14</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="38">
+      <c r="A150" s="31">
         <v>1323</v>
       </c>
-      <c r="B150" s="36">
+      <c r="B150" s="29">
         <v>10.35</v>
       </c>
-      <c r="C150" s="39">
+      <c r="C150" s="32">
         <v>10.14</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="38">
+      <c r="A151" s="31">
         <v>1370</v>
       </c>
-      <c r="B151" s="36">
+      <c r="B151" s="29">
         <v>10.36</v>
       </c>
-      <c r="C151" s="39">
+      <c r="C151" s="32">
         <v>10.15</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="38">
+      <c r="A152" s="31">
         <v>1415</v>
       </c>
-      <c r="B152" s="36">
+      <c r="B152" s="29">
         <v>10.4</v>
       </c>
-      <c r="C152" s="39">
+      <c r="C152" s="32">
         <v>10.210000000000001</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="38">
+      <c r="A153" s="31">
         <v>1440</v>
       </c>
-      <c r="B153" s="36">
+      <c r="B153" s="29">
         <v>10.42</v>
       </c>
-      <c r="C153" s="39">
+      <c r="C153" s="32">
         <v>10.220000000000001</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="38">
+      <c r="A154" s="31">
         <v>1462</v>
       </c>
-      <c r="B154" s="36">
+      <c r="B154" s="29">
         <v>10.44</v>
       </c>
-      <c r="C154" s="39">
+      <c r="C154" s="32">
         <v>10.25</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="38">
+      <c r="A155" s="31">
         <v>1509</v>
       </c>
-      <c r="B155" s="36">
+      <c r="B155" s="29">
         <v>10.47</v>
       </c>
-      <c r="C155" s="39">
+      <c r="C155" s="32">
         <v>10.29</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="38">
+      <c r="A156" s="31">
         <v>1555</v>
       </c>
-      <c r="B156" s="36">
+      <c r="B156" s="29">
         <v>10.49</v>
       </c>
-      <c r="C156" s="39">
+      <c r="C156" s="32">
         <v>10.31</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="38">
+      <c r="A157" s="31">
         <v>1602</v>
       </c>
-      <c r="B157" s="36">
+      <c r="B157" s="29">
         <v>10.52</v>
       </c>
-      <c r="C157" s="39">
+      <c r="C157" s="32">
         <v>10.33</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="38">
+      <c r="A158" s="31">
         <v>1644</v>
       </c>
-      <c r="B158" s="36">
+      <c r="B158" s="29">
         <v>10.55</v>
       </c>
-      <c r="C158" s="39">
+      <c r="C158" s="32">
         <v>10.37</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="38">
+      <c r="A159" s="31">
         <v>1688</v>
       </c>
-      <c r="B159" s="36">
+      <c r="B159" s="29">
         <v>10.56</v>
       </c>
-      <c r="C159" s="39">
+      <c r="C159" s="32">
         <v>10.37</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="38">
+      <c r="A160" s="31">
         <v>1735</v>
       </c>
-      <c r="B160" s="36">
+      <c r="B160" s="29">
         <v>10.58</v>
       </c>
-      <c r="C160" s="39">
+      <c r="C160" s="32">
         <v>10.38</v>
       </c>
     </row>
     <row r="161" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="38">
+      <c r="A161" s="31">
         <v>1782</v>
       </c>
-      <c r="B161" s="36">
+      <c r="B161" s="29">
         <v>10.61</v>
       </c>
-      <c r="C161" s="39">
+      <c r="C161" s="32">
         <v>10.42</v>
       </c>
     </row>
     <row r="162" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="38">
+      <c r="A162" s="31">
         <v>1800</v>
       </c>
-      <c r="B162" s="36">
+      <c r="B162" s="29">
         <v>10.62</v>
       </c>
-      <c r="C162" s="39">
+      <c r="C162" s="32">
         <v>10.44</v>
       </c>
       <c r="D162">
@@ -8768,1267 +8777,1267 @@
       </c>
     </row>
     <row r="163" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="38">
+      <c r="A163" s="31">
         <v>1873</v>
       </c>
-      <c r="B163" s="36">
+      <c r="B163" s="29">
         <v>10.66</v>
       </c>
-      <c r="C163" s="39">
+      <c r="C163" s="32">
         <v>10.47</v>
       </c>
     </row>
     <row r="164" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="38">
+      <c r="A164" s="31">
         <v>1922</v>
       </c>
-      <c r="B164" s="36">
+      <c r="B164" s="29">
         <v>10.69</v>
       </c>
-      <c r="C164" s="39">
+      <c r="C164" s="32">
         <v>10.49</v>
       </c>
     </row>
     <row r="165" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="38">
+      <c r="A165" s="31">
         <v>1964</v>
       </c>
-      <c r="B165" s="36">
+      <c r="B165" s="29">
         <v>10.71</v>
       </c>
-      <c r="C165" s="39">
+      <c r="C165" s="32">
         <v>10.5</v>
       </c>
     </row>
     <row r="166" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="38">
+      <c r="A166" s="31">
         <v>2055</v>
       </c>
-      <c r="B166" s="36">
+      <c r="B166" s="29">
         <v>10.75</v>
       </c>
-      <c r="C166" s="39">
+      <c r="C166" s="32">
         <v>10.54</v>
       </c>
     </row>
     <row r="167" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="38">
+      <c r="A167" s="31">
         <v>2100</v>
       </c>
-      <c r="B167" s="36">
+      <c r="B167" s="29">
         <v>10.77</v>
       </c>
-      <c r="C167" s="39">
+      <c r="C167" s="32">
         <v>10.56</v>
       </c>
     </row>
     <row r="168" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="38">
+      <c r="A168" s="31">
         <v>2146</v>
       </c>
-      <c r="B168" s="36">
+      <c r="B168" s="29">
         <v>10.78</v>
       </c>
-      <c r="C168" s="39">
+      <c r="C168" s="32">
         <v>10.58</v>
       </c>
     </row>
     <row r="169" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="38">
+      <c r="A169" s="31">
         <v>2160</v>
       </c>
-      <c r="B169" s="36">
+      <c r="B169" s="29">
         <v>10.79</v>
       </c>
-      <c r="C169" s="39">
+      <c r="C169" s="32">
         <v>10.59</v>
       </c>
     </row>
     <row r="170" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="38">
+      <c r="A170" s="31">
         <v>2238</v>
       </c>
-      <c r="B170" s="36">
+      <c r="B170" s="29">
         <v>10.81</v>
       </c>
-      <c r="C170" s="39">
+      <c r="C170" s="32">
         <v>10.61</v>
       </c>
     </row>
     <row r="171" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="38">
+      <c r="A171" s="31">
         <v>2286</v>
       </c>
-      <c r="B171" s="36">
+      <c r="B171" s="29">
         <v>10.83</v>
       </c>
-      <c r="C171" s="39">
+      <c r="C171" s="32">
         <v>10.63</v>
       </c>
     </row>
     <row r="172" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="38">
+      <c r="A172" s="31">
         <v>2329</v>
       </c>
-      <c r="B172" s="36">
+      <c r="B172" s="29">
         <v>10.85</v>
       </c>
-      <c r="C172" s="39">
+      <c r="C172" s="32">
         <v>10.66</v>
       </c>
     </row>
     <row r="173" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="38">
+      <c r="A173" s="31">
         <v>2419</v>
       </c>
-      <c r="B173" s="36">
+      <c r="B173" s="29">
         <v>10.87</v>
       </c>
-      <c r="C173" s="39">
+      <c r="C173" s="32">
         <v>10.66</v>
       </c>
     </row>
     <row r="174" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="38">
+      <c r="A174" s="31">
         <v>2468</v>
       </c>
-      <c r="B174" s="36">
+      <c r="B174" s="29">
         <v>10.89</v>
       </c>
-      <c r="C174" s="39">
+      <c r="C174" s="32">
         <v>10.68</v>
       </c>
     </row>
     <row r="175" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="38">
+      <c r="A175" s="31">
         <v>2511</v>
       </c>
-      <c r="B175" s="36">
+      <c r="B175" s="29">
         <v>10.9</v>
       </c>
-      <c r="C175" s="39">
+      <c r="C175" s="32">
         <v>10.7</v>
       </c>
     </row>
     <row r="176" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="38">
+      <c r="A176" s="31">
         <v>2520</v>
       </c>
-      <c r="B176" s="36">
+      <c r="B176" s="29">
         <v>10.91</v>
       </c>
-      <c r="C176" s="39">
+      <c r="C176" s="32">
         <v>10.71</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="38">
+      <c r="A177" s="31">
         <v>2604</v>
       </c>
-      <c r="B177" s="36">
+      <c r="B177" s="29">
         <v>10.93</v>
       </c>
-      <c r="C177" s="39">
+      <c r="C177" s="32">
         <v>10.72</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="38">
+      <c r="A178" s="31">
         <v>2651</v>
       </c>
-      <c r="B178" s="36">
+      <c r="B178" s="29">
         <v>10.94</v>
       </c>
-      <c r="C178" s="39">
+      <c r="C178" s="32">
         <v>10.72</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="38">
+      <c r="A179" s="31">
         <v>2695</v>
       </c>
-      <c r="B179" s="36">
+      <c r="B179" s="29">
         <v>10.95</v>
       </c>
-      <c r="C179" s="39">
+      <c r="C179" s="32">
         <v>10.73</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="38">
+      <c r="A180" s="31">
         <v>2784</v>
       </c>
-      <c r="B180" s="36">
+      <c r="B180" s="29">
         <v>10.97</v>
       </c>
-      <c r="C180" s="39">
+      <c r="C180" s="32">
         <v>10.76</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="38">
+      <c r="A181" s="31">
         <v>2832</v>
       </c>
-      <c r="B181" s="36">
+      <c r="B181" s="29">
         <v>10.99</v>
       </c>
-      <c r="C181" s="39">
+      <c r="C181" s="32">
         <v>10.77</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="38">
+      <c r="A182" s="31">
         <v>2862</v>
       </c>
-      <c r="B182" s="36">
+      <c r="B182" s="29">
         <v>10.99</v>
       </c>
-      <c r="C182" s="39">
+      <c r="C182" s="32">
         <v>10.78</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="38">
+      <c r="A183" s="31">
         <v>2876</v>
       </c>
-      <c r="B183" s="36">
+      <c r="B183" s="29">
         <v>11</v>
       </c>
-      <c r="C183" s="39">
+      <c r="C183" s="32">
         <v>10.79</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A184" s="38">
+      <c r="A184" s="31">
         <v>2881</v>
       </c>
-      <c r="B184" s="36">
+      <c r="B184" s="29">
         <v>11</v>
       </c>
-      <c r="C184" s="39">
+      <c r="C184" s="32">
         <v>10.79</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="38">
+      <c r="A185" s="31">
         <v>2969</v>
       </c>
-      <c r="B185" s="36">
+      <c r="B185" s="29">
         <v>11.02</v>
       </c>
-      <c r="C185" s="39">
+      <c r="C185" s="32">
         <v>10.8</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A186" s="38">
+      <c r="A186" s="31">
         <v>3016</v>
       </c>
-      <c r="B186" s="36">
+      <c r="B186" s="29">
         <v>11.03</v>
       </c>
-      <c r="C186" s="39">
+      <c r="C186" s="32">
         <v>10.8</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="38">
+      <c r="A187" s="31">
         <v>3060</v>
       </c>
-      <c r="B187" s="36">
+      <c r="B187" s="29">
         <v>11.03</v>
       </c>
-      <c r="C187" s="39">
+      <c r="C187" s="32">
         <v>10.82</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A188" s="38">
+      <c r="A188" s="31">
         <v>3105</v>
       </c>
-      <c r="B188" s="36">
+      <c r="B188" s="29">
         <v>11.04</v>
       </c>
-      <c r="C188" s="39">
+      <c r="C188" s="32">
         <v>10.82</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="38">
+      <c r="A189" s="31">
         <v>3149</v>
       </c>
-      <c r="B189" s="36">
+      <c r="B189" s="29">
         <v>11.04</v>
       </c>
-      <c r="C189" s="39">
+      <c r="C189" s="32">
         <v>10.82</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="38">
+      <c r="A190" s="31">
         <v>3196</v>
       </c>
-      <c r="B190" s="36">
+      <c r="B190" s="29">
         <v>11.05</v>
       </c>
-      <c r="C190" s="39">
+      <c r="C190" s="32">
         <v>10.82</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A191" s="38">
+      <c r="A191" s="31">
         <v>3240</v>
       </c>
-      <c r="B191" s="36">
+      <c r="B191" s="29">
         <v>11.05</v>
       </c>
-      <c r="C191" s="39">
+      <c r="C191" s="32">
         <v>10.84</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A192" s="38">
+      <c r="A192" s="31">
         <v>3241</v>
       </c>
-      <c r="B192" s="36">
+      <c r="B192" s="29">
         <v>11.05</v>
       </c>
-      <c r="C192" s="39">
+      <c r="C192" s="32">
         <v>10.84</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A193" s="38">
+      <c r="A193" s="31">
         <v>3336</v>
       </c>
-      <c r="B193" s="36">
+      <c r="B193" s="29">
         <v>11.07</v>
       </c>
-      <c r="C193" s="39">
+      <c r="C193" s="32">
         <v>10.85</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A194" s="38">
+      <c r="A194" s="31">
         <v>3381</v>
       </c>
-      <c r="B194" s="36">
+      <c r="B194" s="29">
         <v>11.07</v>
       </c>
-      <c r="C194" s="39">
+      <c r="C194" s="32">
         <v>10.86</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A195" s="38">
+      <c r="A195" s="31">
         <v>3427</v>
       </c>
-      <c r="B195" s="36">
+      <c r="B195" s="29">
         <v>11.08</v>
       </c>
-      <c r="C195" s="39">
+      <c r="C195" s="32">
         <v>10.87</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A196" s="38">
+      <c r="A196" s="31">
         <v>3514</v>
       </c>
-      <c r="B196" s="36">
+      <c r="B196" s="29">
         <v>11.08</v>
       </c>
-      <c r="C196" s="39">
+      <c r="C196" s="32">
         <v>10.87</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A197" s="38">
+      <c r="A197" s="31">
         <v>3602</v>
       </c>
-      <c r="B197" s="36">
+      <c r="B197" s="29">
         <v>11.09</v>
       </c>
-      <c r="C197" s="39">
+      <c r="C197" s="32">
         <v>10.88</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="38">
+      <c r="A198" s="31">
         <v>3606</v>
       </c>
-      <c r="B198" s="36">
+      <c r="B198" s="29">
         <v>11.09</v>
       </c>
-      <c r="C198" s="39">
+      <c r="C198" s="32">
         <v>10.88</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A199" s="38">
+      <c r="A199" s="31">
         <v>3700</v>
       </c>
-      <c r="B199" s="36">
+      <c r="B199" s="29">
         <v>11.1</v>
       </c>
-      <c r="C199" s="39">
+      <c r="C199" s="32">
         <v>10.9</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="38">
+      <c r="A200" s="31">
         <v>3791</v>
       </c>
-      <c r="B200" s="36">
+      <c r="B200" s="29">
         <v>11.11</v>
       </c>
-      <c r="C200" s="39">
+      <c r="C200" s="32">
         <v>10.9</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A201" s="38">
+      <c r="A201" s="31">
         <v>3882</v>
       </c>
-      <c r="B201" s="36">
+      <c r="B201" s="29">
         <v>11.11</v>
       </c>
-      <c r="C201" s="39">
+      <c r="C201" s="32">
         <v>10.9</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A202" s="38">
+      <c r="A202" s="31">
         <v>3960</v>
       </c>
-      <c r="B202" s="36">
+      <c r="B202" s="29">
         <v>11.12</v>
       </c>
-      <c r="C202" s="39">
+      <c r="C202" s="32">
         <v>10.92</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A203" s="38">
+      <c r="A203" s="31">
         <v>3973</v>
       </c>
-      <c r="B203" s="36">
+      <c r="B203" s="29">
         <v>11.12</v>
       </c>
-      <c r="C203" s="39">
+      <c r="C203" s="32">
         <v>10.92</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A204" s="38">
+      <c r="A204" s="31">
         <v>4065</v>
       </c>
-      <c r="B204" s="36">
+      <c r="B204" s="29">
         <v>11.13</v>
       </c>
-      <c r="C204" s="39">
+      <c r="C204" s="32">
         <v>10.92</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A205" s="38">
+      <c r="A205" s="31">
         <v>4113</v>
       </c>
-      <c r="B205" s="36">
+      <c r="B205" s="29">
         <v>11.13</v>
       </c>
-      <c r="C205" s="39">
+      <c r="C205" s="32">
         <v>10.93</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A206" s="38">
+      <c r="A206" s="31">
         <v>4156</v>
       </c>
-      <c r="B206" s="36">
+      <c r="B206" s="29">
         <v>11.14</v>
       </c>
-      <c r="C206" s="39">
+      <c r="C206" s="32">
         <v>10.94</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A207" s="38">
+      <c r="A207" s="31">
         <v>4246</v>
       </c>
-      <c r="B207" s="36">
+      <c r="B207" s="29">
         <v>11.16</v>
       </c>
-      <c r="C207" s="39">
+      <c r="C207" s="32">
         <v>10.95</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A208" s="38">
+      <c r="A208" s="31">
         <v>4320</v>
       </c>
-      <c r="B208" s="36">
+      <c r="B208" s="29">
         <v>11.18</v>
       </c>
-      <c r="C208" s="39">
+      <c r="C208" s="32">
         <v>10.98</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A209" s="38">
+      <c r="A209" s="31">
         <v>4337</v>
       </c>
-      <c r="B209" s="36">
+      <c r="B209" s="29">
         <v>11.18</v>
       </c>
-      <c r="C209" s="39">
+      <c r="C209" s="32">
         <v>10.98</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A210" s="38">
+      <c r="A210" s="31">
         <v>4430</v>
       </c>
-      <c r="B210" s="36">
+      <c r="B210" s="29">
         <v>11.2</v>
       </c>
-      <c r="C210" s="39">
+      <c r="C210" s="32">
         <v>11</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="38">
+      <c r="A211" s="31">
         <v>4521</v>
       </c>
-      <c r="B211" s="36">
+      <c r="B211" s="29">
         <v>11.22</v>
       </c>
-      <c r="C211" s="39">
+      <c r="C211" s="32">
         <v>11.02</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A212" s="38">
+      <c r="A212" s="31">
         <v>4610</v>
       </c>
-      <c r="B212" s="36">
+      <c r="B212" s="29">
         <v>11.24</v>
       </c>
-      <c r="C212" s="39">
+      <c r="C212" s="32">
         <v>11.03</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A213" s="38">
+      <c r="A213" s="31">
         <v>4680</v>
       </c>
-      <c r="B213" s="36">
+      <c r="B213" s="29">
         <v>11.25</v>
       </c>
-      <c r="C213" s="39">
+      <c r="C213" s="32">
         <v>11.04</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A214" s="38">
+      <c r="A214" s="31">
         <v>4702</v>
       </c>
-      <c r="B214" s="36">
+      <c r="B214" s="29">
         <v>11.26</v>
       </c>
-      <c r="C214" s="39">
+      <c r="C214" s="32">
         <v>11.05</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A215" s="38">
+      <c r="A215" s="31">
         <v>4795</v>
       </c>
-      <c r="B215" s="36">
+      <c r="B215" s="29">
         <v>11.27</v>
       </c>
-      <c r="C215" s="39">
+      <c r="C215" s="32">
         <v>11.07</v>
       </c>
     </row>
     <row r="216" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A216" s="38">
+      <c r="A216" s="31">
         <v>4842</v>
       </c>
-      <c r="B216" s="36">
+      <c r="B216" s="29">
         <v>11.28</v>
       </c>
-      <c r="C216" s="39">
+      <c r="C216" s="32">
         <v>11.07</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A217" s="38">
+      <c r="A217" s="31">
         <v>4886</v>
       </c>
-      <c r="B217" s="36">
+      <c r="B217" s="29">
         <v>11.29</v>
       </c>
-      <c r="C217" s="39">
+      <c r="C217" s="32">
         <v>11.08</v>
       </c>
     </row>
     <row r="218" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A218" s="38">
+      <c r="A218" s="31">
         <v>4975</v>
       </c>
-      <c r="B218" s="36">
+      <c r="B218" s="29">
         <v>11.32</v>
       </c>
-      <c r="C218" s="39">
+      <c r="C218" s="32">
         <v>11.11</v>
       </c>
     </row>
     <row r="219" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A219" s="38">
+      <c r="A219" s="31">
         <v>5040</v>
       </c>
-      <c r="B219" s="36">
+      <c r="B219" s="29">
         <v>11.34</v>
       </c>
-      <c r="C219" s="39">
+      <c r="C219" s="32">
         <v>11.13</v>
       </c>
     </row>
     <row r="220" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A220" s="38">
+      <c r="A220" s="31">
         <v>5067</v>
       </c>
-      <c r="B220" s="36">
+      <c r="B220" s="29">
         <v>11.35</v>
       </c>
-      <c r="C220" s="39">
+      <c r="C220" s="32">
         <v>11.14</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A221" s="38">
+      <c r="A221" s="31">
         <v>5160</v>
       </c>
-      <c r="B221" s="36">
+      <c r="B221" s="29">
         <v>11.38</v>
       </c>
-      <c r="C221" s="39">
+      <c r="C221" s="32">
         <v>11.16</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="38">
+      <c r="A222" s="31">
         <v>5207</v>
       </c>
-      <c r="B222" s="36">
+      <c r="B222" s="29">
         <v>11.39</v>
       </c>
-      <c r="C222" s="39">
+      <c r="C222" s="32">
         <v>11.17</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A223" s="38">
+      <c r="A223" s="31">
         <v>5251</v>
       </c>
-      <c r="B223" s="36">
+      <c r="B223" s="29">
         <v>11.4</v>
       </c>
-      <c r="C223" s="39">
+      <c r="C223" s="32">
         <v>11.19</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A224" s="38">
+      <c r="A224" s="31">
         <v>5341</v>
       </c>
-      <c r="B224" s="36">
+      <c r="B224" s="29">
         <v>11.43</v>
       </c>
-      <c r="C224" s="39">
+      <c r="C224" s="32">
         <v>11.2</v>
       </c>
     </row>
     <row r="225" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A225" s="38">
+      <c r="A225" s="31">
         <v>5401</v>
       </c>
-      <c r="B225" s="36">
+      <c r="B225" s="29">
         <v>11.44</v>
       </c>
-      <c r="C225" s="39">
+      <c r="C225" s="32">
         <v>11.22</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A226" s="38">
+      <c r="A226" s="31">
         <v>5433</v>
       </c>
-      <c r="B226" s="36">
+      <c r="B226" s="29">
         <v>11.45</v>
       </c>
-      <c r="C226" s="39">
+      <c r="C226" s="32">
         <v>11.23</v>
       </c>
     </row>
     <row r="227" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A227" s="38">
+      <c r="A227" s="31">
         <v>5527</v>
       </c>
-      <c r="B227" s="36">
+      <c r="B227" s="29">
         <v>11.48</v>
       </c>
-      <c r="C227" s="39">
+      <c r="C227" s="32">
         <v>11.26</v>
       </c>
     </row>
     <row r="228" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A228" s="38">
+      <c r="A228" s="31">
         <v>5580</v>
       </c>
-      <c r="B228" s="36">
+      <c r="B228" s="29">
         <v>11.49</v>
       </c>
-      <c r="C228" s="39">
+      <c r="C228" s="32">
         <v>11.28</v>
       </c>
     </row>
     <row r="229" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A229" s="38">
+      <c r="A229" s="31">
         <v>5620</v>
       </c>
-      <c r="B229" s="36">
+      <c r="B229" s="29">
         <v>11.5</v>
       </c>
-      <c r="C229" s="39">
+      <c r="C229" s="32">
         <v>11.28</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A230" s="38">
+      <c r="A230" s="31">
         <v>5706</v>
       </c>
-      <c r="B230" s="36">
+      <c r="B230" s="29">
         <v>11.52</v>
       </c>
-      <c r="C230" s="39">
+      <c r="C230" s="32">
         <v>11.3</v>
       </c>
     </row>
     <row r="231" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A231" s="38">
+      <c r="A231" s="31">
         <v>5800</v>
       </c>
-      <c r="B231" s="36">
+      <c r="B231" s="29">
         <v>11.54</v>
       </c>
-      <c r="C231" s="39">
+      <c r="C231" s="32">
         <v>11.32</v>
       </c>
     </row>
     <row r="232" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A232" s="38">
+      <c r="A232" s="31">
         <v>5891</v>
       </c>
-      <c r="B232" s="36">
+      <c r="B232" s="29">
         <v>11.56</v>
       </c>
-      <c r="C232" s="39">
+      <c r="C232" s="32">
         <v>11.34</v>
       </c>
     </row>
     <row r="233" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A233" s="38">
+      <c r="A233" s="31">
         <v>5982</v>
       </c>
-      <c r="B233" s="36">
+      <c r="B233" s="29">
         <v>11.58</v>
       </c>
-      <c r="C233" s="39">
+      <c r="C233" s="32">
         <v>11.36</v>
       </c>
     </row>
     <row r="234" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A234" s="38">
+      <c r="A234" s="31">
         <v>6073</v>
       </c>
-      <c r="B234" s="36">
+      <c r="B234" s="29">
         <v>11.6</v>
       </c>
-      <c r="C234" s="39">
+      <c r="C234" s="32">
         <v>11.38</v>
       </c>
     </row>
     <row r="235" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A235" s="38">
+      <c r="A235" s="31">
         <v>6164</v>
       </c>
-      <c r="B235" s="36">
+      <c r="B235" s="29">
         <v>11.62</v>
       </c>
-      <c r="C235" s="39">
+      <c r="C235" s="32">
         <v>11.4</v>
       </c>
     </row>
     <row r="236" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A236" s="38">
+      <c r="A236" s="31">
         <v>6256</v>
       </c>
-      <c r="B236" s="36">
+      <c r="B236" s="29">
         <v>11.64</v>
       </c>
-      <c r="C236" s="39">
+      <c r="C236" s="32">
         <v>11.41</v>
       </c>
     </row>
     <row r="237" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A237" s="38">
+      <c r="A237" s="31">
         <v>6347</v>
       </c>
-      <c r="B237" s="36">
+      <c r="B237" s="29">
         <v>11.65</v>
       </c>
-      <c r="C237" s="39">
+      <c r="C237" s="32">
         <v>11.44</v>
       </c>
     </row>
     <row r="238" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A238" s="38">
+      <c r="A238" s="31">
         <v>6437</v>
       </c>
-      <c r="B238" s="36">
+      <c r="B238" s="29">
         <v>11.67</v>
       </c>
-      <c r="C238" s="39">
+      <c r="C238" s="32">
         <v>11.45</v>
       </c>
     </row>
     <row r="239" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A239" s="38">
+      <c r="A239" s="31">
         <v>6528</v>
       </c>
-      <c r="B239" s="36">
+      <c r="B239" s="29">
         <v>11.69</v>
       </c>
-      <c r="C239" s="39">
+      <c r="C239" s="32">
         <v>11.47</v>
       </c>
     </row>
     <row r="240" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A240" s="38">
+      <c r="A240" s="31">
         <v>6621</v>
       </c>
-      <c r="B240" s="36">
+      <c r="B240" s="29">
         <v>11.7</v>
       </c>
-      <c r="C240" s="39">
+      <c r="C240" s="32">
         <v>11.48</v>
       </c>
     </row>
     <row r="241" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A241" s="38">
+      <c r="A241" s="31">
         <v>6712</v>
       </c>
-      <c r="B241" s="36">
+      <c r="B241" s="29">
         <v>11.72</v>
       </c>
-      <c r="C241" s="39">
+      <c r="C241" s="32">
         <v>11.5</v>
       </c>
     </row>
     <row r="242" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A242" s="38">
+      <c r="A242" s="31">
         <v>6802</v>
       </c>
-      <c r="B242" s="36">
+      <c r="B242" s="29">
         <v>11.74</v>
       </c>
-      <c r="C242" s="39">
+      <c r="C242" s="32">
         <v>11.52</v>
       </c>
     </row>
     <row r="243" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A243" s="38">
+      <c r="A243" s="31">
         <v>6894</v>
       </c>
-      <c r="B243" s="36">
+      <c r="B243" s="29">
         <v>11.75</v>
       </c>
-      <c r="C243" s="39">
+      <c r="C243" s="32">
         <v>11.53</v>
       </c>
     </row>
     <row r="244" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A244" s="38">
+      <c r="A244" s="31">
         <v>6987</v>
       </c>
-      <c r="B244" s="36">
+      <c r="B244" s="29">
         <v>11.77</v>
       </c>
-      <c r="C244" s="39">
+      <c r="C244" s="32">
         <v>11.55</v>
       </c>
     </row>
     <row r="245" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A245" s="38">
+      <c r="A245" s="31">
         <v>7078</v>
       </c>
-      <c r="B245" s="36">
+      <c r="B245" s="29">
         <v>11.78</v>
       </c>
-      <c r="C245" s="39">
+      <c r="C245" s="32">
         <v>11.56</v>
       </c>
     </row>
     <row r="246" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A246" s="38">
+      <c r="A246" s="31">
         <v>7167</v>
       </c>
-      <c r="B246" s="36">
+      <c r="B246" s="29">
         <v>11.79</v>
       </c>
-      <c r="C246" s="39">
+      <c r="C246" s="32">
         <v>11.57</v>
       </c>
     </row>
     <row r="247" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A247" s="38">
+      <c r="A247" s="31">
         <v>7200</v>
       </c>
-      <c r="B247" s="36">
+      <c r="B247" s="29">
         <v>11.8</v>
       </c>
-      <c r="C247" s="39">
+      <c r="C247" s="32">
         <v>11.57</v>
       </c>
     </row>
     <row r="248" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A248" s="38">
+      <c r="A248" s="31">
         <v>7259</v>
       </c>
-      <c r="B248" s="36">
+      <c r="B248" s="29">
         <v>11.81</v>
       </c>
-      <c r="C248" s="39">
+      <c r="C248" s="32">
         <v>11.59</v>
       </c>
     </row>
     <row r="249" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A249" s="38">
+      <c r="A249" s="31">
         <v>7354</v>
       </c>
-      <c r="B249" s="36">
+      <c r="B249" s="29">
         <v>11.82</v>
       </c>
-      <c r="C249" s="39">
+      <c r="C249" s="32">
         <v>11.6</v>
       </c>
     </row>
     <row r="250" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A250" s="38">
+      <c r="A250" s="31">
         <v>7447</v>
       </c>
-      <c r="B250" s="36">
+      <c r="B250" s="29">
         <v>11.83</v>
       </c>
-      <c r="C250" s="39">
+      <c r="C250" s="32">
         <v>11.61</v>
       </c>
     </row>
     <row r="251" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A251" s="38">
+      <c r="A251" s="31">
         <v>7532</v>
       </c>
-      <c r="B251" s="36">
+      <c r="B251" s="29">
         <v>11.84</v>
       </c>
-      <c r="C251" s="39">
+      <c r="C251" s="32">
         <v>11.62</v>
       </c>
     </row>
     <row r="252" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A252" s="38">
+      <c r="A252" s="31">
         <v>7624</v>
       </c>
-      <c r="B252" s="36">
+      <c r="B252" s="29">
         <v>11.86</v>
       </c>
-      <c r="C252" s="39">
+      <c r="C252" s="32">
         <v>11.64</v>
       </c>
     </row>
     <row r="253" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A253" s="38">
+      <c r="A253" s="31">
         <v>7718</v>
       </c>
-      <c r="B253" s="36">
+      <c r="B253" s="29">
         <v>11.87</v>
       </c>
-      <c r="C253" s="39">
+      <c r="C253" s="32">
         <v>11.65</v>
       </c>
     </row>
     <row r="254" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A254" s="38">
+      <c r="A254" s="31">
         <v>7809</v>
       </c>
-      <c r="B254" s="36">
+      <c r="B254" s="29">
         <v>11.88</v>
       </c>
-      <c r="C254" s="39">
+      <c r="C254" s="32">
         <v>11.66</v>
       </c>
     </row>
     <row r="255" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A255" s="38">
+      <c r="A255" s="31">
         <v>7897</v>
       </c>
-      <c r="B255" s="36">
+      <c r="B255" s="29">
         <v>11.89</v>
       </c>
-      <c r="C255" s="39">
+      <c r="C255" s="32">
         <v>11.67</v>
       </c>
     </row>
     <row r="256" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A256" s="38">
+      <c r="A256" s="31">
         <v>7991</v>
       </c>
-      <c r="B256" s="36">
+      <c r="B256" s="29">
         <v>11.9</v>
       </c>
-      <c r="C256" s="39">
+      <c r="C256" s="32">
         <v>11.69</v>
       </c>
     </row>
     <row r="257" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A257" s="38">
+      <c r="A257" s="31">
         <v>8082</v>
       </c>
-      <c r="B257" s="36">
+      <c r="B257" s="29">
         <v>11.91</v>
       </c>
-      <c r="C257" s="39">
+      <c r="C257" s="32">
         <v>11.69</v>
       </c>
     </row>
     <row r="258" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A258" s="38">
+      <c r="A258" s="31">
         <v>8173</v>
       </c>
-      <c r="B258" s="36">
+      <c r="B258" s="29">
         <v>11.92</v>
       </c>
-      <c r="C258" s="39">
+      <c r="C258" s="32">
         <v>11.71</v>
       </c>
     </row>
     <row r="259" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A259" s="38">
+      <c r="A259" s="31">
         <v>8264</v>
       </c>
-      <c r="B259" s="36">
+      <c r="B259" s="29">
         <v>11.93</v>
       </c>
-      <c r="C259" s="39">
+      <c r="C259" s="32">
         <v>11.71</v>
       </c>
     </row>
     <row r="260" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A260" s="38">
+      <c r="A260" s="31">
         <v>8355</v>
       </c>
-      <c r="B260" s="36">
+      <c r="B260" s="29">
         <v>11.94</v>
       </c>
-      <c r="C260" s="39">
+      <c r="C260" s="32">
         <v>11.73</v>
       </c>
     </row>
     <row r="261" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A261" s="38">
+      <c r="A261" s="31">
         <v>8448</v>
       </c>
-      <c r="B261" s="36">
+      <c r="B261" s="29">
         <v>11.95</v>
       </c>
-      <c r="C261" s="39">
+      <c r="C261" s="32">
         <v>11.73</v>
       </c>
     </row>
     <row r="262" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A262" s="38">
+      <c r="A262" s="31">
         <v>8539</v>
       </c>
-      <c r="B262" s="36">
+      <c r="B262" s="29">
         <v>11.96</v>
       </c>
-      <c r="C262" s="39">
+      <c r="C262" s="32">
         <v>11.75</v>
       </c>
     </row>
     <row r="263" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A263" s="38">
+      <c r="A263" s="31">
         <v>8628</v>
       </c>
-      <c r="B263" s="36">
+      <c r="B263" s="29">
         <v>11.97</v>
       </c>
-      <c r="C263" s="39">
+      <c r="C263" s="32">
         <v>11.75</v>
       </c>
     </row>
     <row r="264" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A264" s="38">
+      <c r="A264" s="31">
         <v>8720</v>
       </c>
-      <c r="B264" s="36">
+      <c r="B264" s="29">
         <v>11.98</v>
       </c>
-      <c r="C264" s="39">
+      <c r="C264" s="32">
         <v>11.76</v>
       </c>
     </row>
     <row r="265" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A265" s="38">
+      <c r="A265" s="31">
         <v>8904</v>
       </c>
-      <c r="B265" s="36">
+      <c r="B265" s="29">
         <v>12</v>
       </c>
-      <c r="C265" s="39">
+      <c r="C265" s="32">
         <v>11.77</v>
       </c>
     </row>
     <row r="266" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A266" s="38">
+      <c r="A266" s="31">
         <v>9000</v>
       </c>
-      <c r="B266" s="36">
+      <c r="B266" s="29">
         <v>12.01</v>
       </c>
-      <c r="C266" s="39">
+      <c r="C266" s="32">
         <v>11.78</v>
       </c>
     </row>
     <row r="267" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A267" s="38">
+      <c r="A267" s="31">
         <v>9085</v>
       </c>
-      <c r="B267" s="36">
+      <c r="B267" s="29">
         <v>12.02</v>
       </c>
-      <c r="C267" s="39">
+      <c r="C267" s="32">
         <v>11.8</v>
       </c>
     </row>
     <row r="268" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A268" s="38">
+      <c r="A268" s="31">
         <v>9269</v>
       </c>
-      <c r="B268" s="36">
+      <c r="B268" s="29">
         <v>12.03</v>
       </c>
-      <c r="C268" s="39">
+      <c r="C268" s="32">
         <v>11.81</v>
       </c>
     </row>
     <row r="269" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A269" s="38">
+      <c r="A269" s="31">
         <v>9450</v>
       </c>
-      <c r="B269" s="36">
+      <c r="B269" s="29">
         <v>12.05</v>
       </c>
-      <c r="C269" s="39">
+      <c r="C269" s="32">
         <v>11.82</v>
       </c>
     </row>
     <row r="270" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A270" s="38">
+      <c r="A270" s="31">
         <v>9638</v>
       </c>
-      <c r="B270" s="36">
+      <c r="B270" s="29">
         <v>12.07</v>
       </c>
-      <c r="C270" s="39">
+      <c r="C270" s="32">
         <v>11.84</v>
       </c>
     </row>
     <row r="271" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A271" s="38">
+      <c r="A271" s="31">
         <v>9818</v>
       </c>
-      <c r="B271" s="36">
+      <c r="B271" s="29">
         <v>12.08</v>
       </c>
-      <c r="C271" s="39">
+      <c r="C271" s="32">
         <v>11.86</v>
       </c>
     </row>
     <row r="272" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A272" s="38">
+      <c r="A272" s="31">
         <v>10000</v>
       </c>
-      <c r="B272" s="36">
+      <c r="B272" s="29">
         <v>12.1</v>
       </c>
-      <c r="C272" s="39">
+      <c r="C272" s="32">
         <v>11.87</v>
       </c>
     </row>
     <row r="273" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A273" s="38">
+      <c r="A273" s="31">
         <v>10182</v>
       </c>
-      <c r="B273" s="36">
+      <c r="B273" s="29">
         <v>12.11</v>
       </c>
-      <c r="C273" s="39">
+      <c r="C273" s="32">
         <v>11.88</v>
       </c>
     </row>
     <row r="274" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A274" s="38">
+      <c r="A274" s="31">
         <v>10365</v>
       </c>
-      <c r="B274" s="36">
+      <c r="B274" s="29">
         <v>12.12</v>
       </c>
-      <c r="C274" s="39">
+      <c r="C274" s="32">
         <v>11.9</v>
       </c>
     </row>
     <row r="275" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A275" s="38">
+      <c r="A275" s="31">
         <v>10546</v>
       </c>
-      <c r="B275" s="36">
+      <c r="B275" s="29">
         <v>12.14</v>
       </c>
-      <c r="C275" s="39">
+      <c r="C275" s="32">
         <v>11.91</v>
       </c>
     </row>
     <row r="276" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A276" s="38">
+      <c r="A276" s="31">
         <v>10800</v>
       </c>
-      <c r="B276" s="36">
+      <c r="B276" s="29">
         <v>12.15</v>
       </c>
-      <c r="C276" s="39">
+      <c r="C276" s="32">
         <v>11.92</v>
       </c>
     </row>
     <row r="277" spans="1:3" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A277" s="38">
+      <c r="A277" s="31">
         <v>12282</v>
       </c>
-      <c r="B277" s="36">
+      <c r="B277" s="29">
         <v>12.24</v>
       </c>
-      <c r="C277" s="39">
+      <c r="C277" s="32">
         <v>12.01</v>
       </c>
     </row>
@@ -10043,17 +10052,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000494E4C880FE7F4BA51867C93B3F3976" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="750ad8de8797dc9129295eed0b91e1ca">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="768669a8-fa71-4092-a0b2-cc869fdcda5c" xmlns:ns3="a4139fed-168a-4ef9-86db-e231cc27737f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c352d62d9cd681f5ab2392e89a3fd6cd" ns1:_="" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101000494E4C880FE7F4BA51867C93B3F3976" ma:contentTypeVersion="15" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="41a20145a2bd248e20fd9ff31a277d87">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="768669a8-fa71-4092-a0b2-cc869fdcda5c" xmlns:ns3="a4139fed-168a-4ef9-86db-e231cc27737f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="19e65116b4caf5e1af6242115981ffc3" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="768669a8-fa71-4092-a0b2-cc869fdcda5c"/>
     <xsd:import namespace="a4139fed-168a-4ef9-86db-e231cc27737f"/>
@@ -10088,12 +10097,12 @@
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="http://schemas.microsoft.com/sharepoint/v3" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="_ip_UnifiedCompliancePolicyProperties" ma:index="20" nillable="true" ma:displayName="Unified Compliance Policy Properties" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyProperties">
+    <xsd:element name="_ip_UnifiedCompliancePolicyProperties" ma:index="20" nillable="true" ma:displayName="Propriedades da Política de Conformidade Unificada" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyProperties">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="_ip_UnifiedCompliancePolicyUIAction" ma:index="21" nillable="true" ma:displayName="Unified Compliance Policy UI Action" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyUIAction">
+    <xsd:element name="_ip_UnifiedCompliancePolicyUIAction" ma:index="21" nillable="true" ma:displayName="Ação de Interface do Usuário da Política de Conformidade Unificada" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyUIAction">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
@@ -10165,7 +10174,7 @@
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="a4139fed-168a-4ef9-86db-e231cc27737f" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="18" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="18" nillable="true" ma:displayName="Compartilhado com" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -10184,7 +10193,7 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="19" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="19" nillable="true" ma:displayName="Detalhes de Compartilhado Com" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
@@ -10201,8 +10210,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de Conteúdo"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -10292,15 +10301,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B411D4C-3743-4F97-A71E-A238483A12A4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E04DBE5-1DC2-4E72-811B-A3BCDE7C2942}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EFD83BC-DE6D-4FE5-9CD7-80823A67DAB2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -10308,32 +10329,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{696B2367-A609-4492-B788-9141F12FF01D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="768669a8-fa71-4092-a0b2-cc869fdcda5c"/>
-    <ds:schemaRef ds:uri="a4139fed-168a-4ef9-86db-e231cc27737f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B411D4C-3743-4F97-A71E-A238483A12A4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/input/plano/plano-funding-pad.xlsx
+++ b/data/input/plano/plano-funding-pad.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="123820"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sicoob.sharepoint.com/sites/Intelignciademercado/Shared Documents/General/99_PROJETOS/python/sicoob-es/proj-funding-caixa-central-v2/data/input/plano/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sicoob\Inteligência de Mercado - General\99_PROJETOS\python\sicoob-es\proj-funding-caixa-central\data\input\plano\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2016" documentId="11_06A40988C0BCFEF439980D1FF686DCE1502CFDEE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A74D393F-831C-4C16-9C72-DC39D743767C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{927D49C4-EE23-481D-A388-0CEA098BF19B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="943" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="943" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PlanoGerencial" sheetId="2" r:id="rId1"/>
@@ -3304,7 +3304,7 @@
   </sheetPr>
   <dimension ref="A1:L70"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H43" sqref="H43"/>
     </sheetView>
@@ -5217,7 +5217,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DD9DC01-8EB4-4DF2-A696-C6E76FFF8412}">
   <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
@@ -10052,12 +10052,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10301,27 +10301,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B411D4C-3743-4F97-A71E-A238483A12A4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E04DBE5-1DC2-4E72-811B-A3BCDE7C2942}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EFD83BC-DE6D-4FE5-9CD7-80823A67DAB2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -10329,4 +10317,32 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E04DBE5-1DC2-4E72-811B-A3BCDE7C2942}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="768669a8-fa71-4092-a0b2-cc869fdcda5c"/>
+    <ds:schemaRef ds:uri="a4139fed-168a-4ef9-86db-e231cc27737f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B411D4C-3743-4F97-A71E-A238483A12A4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>